--- a/data/trans_orig/P40-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P40-Clase-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7342</v>
+        <v>7216</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006933652514996832</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02394115911535651</v>
+        <v>0.02352981140922913</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7357</v>
+        <v>7478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002724577655527435</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009426551109337341</v>
+        <v>0.009582081808030428</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>13398</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7195</v>
+        <v>7372</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22728</v>
+        <v>22061</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02827864452215244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01518733092804224</v>
+        <v>0.01556028561072601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04797153321723423</v>
+        <v>0.04656520607743464</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -828,19 +828,19 @@
         <v>5063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1951</v>
+        <v>1217</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11412</v>
+        <v>10808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01650996936955454</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00636330509193104</v>
+        <v>0.003966827514837555</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03721234589303173</v>
+        <v>0.03524077174981798</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -849,19 +849,19 @@
         <v>18461</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11428</v>
+        <v>11435</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28706</v>
+        <v>29968</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02365414548840705</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01464310352444907</v>
+        <v>0.01465118361176037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03678041598863153</v>
+        <v>0.03839803270545599</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>43765</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31395</v>
+        <v>31922</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58777</v>
+        <v>57619</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09237437413596733</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06626500201859586</v>
+        <v>0.06737712958131287</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1240598843121543</v>
+        <v>0.1216168482151404</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -899,19 +899,19 @@
         <v>42779</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32491</v>
+        <v>31382</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56643</v>
+        <v>57202</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1394898787293141</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1059458433484478</v>
+        <v>0.1023297140590197</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1846969942873889</v>
+        <v>0.186520671536256</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>83</v>
@@ -920,19 +920,19 @@
         <v>86544</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68908</v>
+        <v>69347</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>104530</v>
+        <v>106074</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1108884041895763</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0882919041025472</v>
+        <v>0.08885430701170509</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.133934296089235</v>
+        <v>0.1359129027349049</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>321209</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>299586</v>
+        <v>299953</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>342094</v>
+        <v>341360</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6779764834275837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6323374819400044</v>
+        <v>0.6331107313065613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7220595005347756</v>
+        <v>0.7205097135870162</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>190</v>
@@ -970,19 +970,19 @@
         <v>192803</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176830</v>
+        <v>176006</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>208620</v>
+        <v>210358</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6286774522072756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5765943493262294</v>
+        <v>0.5739085744885044</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6802543848812233</v>
+        <v>0.6859190450342501</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>500</v>
@@ -991,19 +991,19 @@
         <v>514012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>486592</v>
+        <v>487861</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>540102</v>
+        <v>539134</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6586044369323949</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6234701744900796</v>
+        <v>0.6250971184436201</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6920329936987574</v>
+        <v>0.6907921629357023</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>95405</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>76963</v>
+        <v>79194</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114726</v>
+        <v>115387</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2013704979142966</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1624458641057401</v>
+        <v>0.1671544825999231</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2421527962390813</v>
+        <v>0.2435481372588484</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -1041,19 +1041,19 @@
         <v>63909</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50901</v>
+        <v>50444</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>78687</v>
+        <v>80279</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.208389047178859</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1659747086496472</v>
+        <v>0.1644847223790471</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.256577140397067</v>
+        <v>0.2617671062552903</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>150</v>
@@ -1062,19 +1062,19 @@
         <v>159313</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>137334</v>
+        <v>135643</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>181237</v>
+        <v>182693</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2041284357340943</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1759662674022659</v>
+        <v>0.1738000368336628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.232219709623172</v>
+        <v>0.2340847337938514</v>
       </c>
     </row>
     <row r="9">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4749</v>
+        <v>4786</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002578398680782123</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01297252636282527</v>
+        <v>0.01307407938492351</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6140</v>
+        <v>6889</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005401700932610553</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01651177037258375</v>
+        <v>0.01852438398465464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1208,19 +1208,19 @@
         <v>2953</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7957</v>
+        <v>8714</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004001167028131578</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001276854604852357</v>
+        <v>0.001279680807442458</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01078351466561354</v>
+        <v>0.01180892469840967</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10516</v>
+        <v>9285</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006768373611851021</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02872827637343437</v>
+        <v>0.0253643157839175</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1258,19 +1258,19 @@
         <v>8481</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3846</v>
+        <v>3624</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15308</v>
+        <v>15903</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02280613721193492</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01034127162275221</v>
+        <v>0.00974676372154846</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04116610627079507</v>
+        <v>0.04276626383857425</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1279,19 +1279,19 @@
         <v>10958</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5322</v>
+        <v>5671</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19190</v>
+        <v>19697</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01485040676919193</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007212369773314517</v>
+        <v>0.007685701513117054</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0260052383416931</v>
+        <v>0.02669239619257765</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>41459</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30240</v>
+        <v>29462</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53705</v>
+        <v>53881</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1132598155655159</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08261113619684365</v>
+        <v>0.08048604788519118</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1467142775004645</v>
+        <v>0.1471943239485752</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -1329,19 +1329,19 @@
         <v>51930</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39739</v>
+        <v>39676</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66302</v>
+        <v>67697</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1396482708872626</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1068647362290893</v>
+        <v>0.1066954930283695</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1782972086852092</v>
+        <v>0.1820470407353521</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>91</v>
@@ -1350,19 +1350,19 @@
         <v>93389</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>75901</v>
+        <v>75401</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>112500</v>
+        <v>112217</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1265579521511088</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1028588726789249</v>
+        <v>0.1021812575879268</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.15245573453893</v>
+        <v>0.1520730091529814</v>
       </c>
     </row>
     <row r="13">
@@ -1379,19 +1379,19 @@
         <v>244891</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>228300</v>
+        <v>225483</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>263209</v>
+        <v>261847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6690024481118425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6236777657267165</v>
+        <v>0.6159824007122748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7190434425277625</v>
+        <v>0.7153243340364778</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>240</v>
@@ -1400,19 +1400,19 @@
         <v>245954</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>228514</v>
+        <v>226883</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>265601</v>
+        <v>265385</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6614069219643934</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.614506953701631</v>
+        <v>0.6101232722724567</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7142397508845585</v>
+        <v>0.7136585056995258</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>472</v>
@@ -1421,19 +1421,19 @@
         <v>490844</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>464265</v>
+        <v>464964</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>515023</v>
+        <v>516915</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6651747763926501</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6291547527850325</v>
+        <v>0.6301031669462898</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6979412519870094</v>
+        <v>0.700504915821426</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>76282</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61249</v>
+        <v>60553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>92340</v>
+        <v>92243</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2083909640300085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1673236528221996</v>
+        <v>0.1654221825382625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.252258269421714</v>
+        <v>0.2519942338865888</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -1471,19 +1471,19 @@
         <v>63491</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49772</v>
+        <v>49043</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77992</v>
+        <v>79030</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1707369690037985</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.133844740116884</v>
+        <v>0.1318843899446116</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2097317462678997</v>
+        <v>0.2125220945218695</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>136</v>
@@ -1492,19 +1492,19 @@
         <v>139773</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>118980</v>
+        <v>118522</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>161769</v>
+        <v>161649</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1894156976589176</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1612373121749695</v>
+        <v>0.1606170225325541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2192234521967104</v>
+        <v>0.2190602810973342</v>
       </c>
     </row>
     <row r="15">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6391</v>
+        <v>5782</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003333370728212305</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01180421748980584</v>
+        <v>0.01068032150188641</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7915</v>
+        <v>6857</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01351402902916025</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04717528876816836</v>
+        <v>0.04086603276550533</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1638,19 +1638,19 @@
         <v>4072</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10466</v>
+        <v>10267</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005741998018822283</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001571797104955033</v>
+        <v>0.00157983581105407</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0147580383394236</v>
+        <v>0.01447798545885659</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>7257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2932</v>
+        <v>2805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13251</v>
+        <v>13838</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01340401871078573</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00541644338155018</v>
+        <v>0.005180207942427681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02447633349920985</v>
+        <v>0.02556082502271209</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1688,19 +1688,19 @@
         <v>9121</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4627</v>
+        <v>4799</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16740</v>
+        <v>17045</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05436241453581893</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02757732297601332</v>
+        <v>0.02860511764706616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09977121504020955</v>
+        <v>0.1015886634760096</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -1709,19 +1709,19 @@
         <v>16378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9636</v>
+        <v>9969</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24756</v>
+        <v>25845</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02309430661236425</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01358701383078273</v>
+        <v>0.01405710821146494</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03490807757688608</v>
+        <v>0.03644359413347181</v>
       </c>
     </row>
     <row r="18">
@@ -1738,19 +1738,19 @@
         <v>84172</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>68466</v>
+        <v>68482</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>101185</v>
+        <v>101747</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1554730377016624</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1264640983872679</v>
+        <v>0.1264920310376644</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1868987729740221</v>
+        <v>0.1879373223988196</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -1759,19 +1759,19 @@
         <v>36492</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26993</v>
+        <v>26097</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48215</v>
+        <v>48346</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2174990233517557</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1608786755602182</v>
+        <v>0.1555417100932699</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2873682353758761</v>
+        <v>0.2881472395685619</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>121</v>
@@ -1780,19 +1780,19 @@
         <v>120664</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>102525</v>
+        <v>102408</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>141305</v>
+        <v>140096</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1701476763495273</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1445707058413375</v>
+        <v>0.1444054975293274</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1992533574129788</v>
+        <v>0.1975492481322305</v>
       </c>
     </row>
     <row r="19">
@@ -1809,19 +1809,19 @@
         <v>350703</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>329363</v>
+        <v>326791</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>374785</v>
+        <v>372337</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6477832927525226</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6083651800930002</v>
+        <v>0.6036147658557806</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6922642244801134</v>
+        <v>0.6877420124248387</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -1830,19 +1830,19 @@
         <v>101943</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86967</v>
+        <v>89492</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>113668</v>
+        <v>114623</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.607592581946267</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5183309642721483</v>
+        <v>0.5333810045076537</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6774716033011998</v>
+        <v>0.6831655382827234</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>442</v>
@@ -1851,19 +1851,19 @@
         <v>452646</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>426210</v>
+        <v>425603</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>479473</v>
+        <v>476479</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6382746303443219</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6009968668708903</v>
+        <v>0.6001401145873846</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6761026227909246</v>
+        <v>0.6718803181210112</v>
       </c>
     </row>
     <row r="20">
@@ -1880,19 +1880,19 @@
         <v>97454</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78100</v>
+        <v>79136</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116586</v>
+        <v>116731</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.180006280106817</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1442580346114593</v>
+        <v>0.1461724438054144</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.215346194976242</v>
+        <v>0.2156132844484306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1901,19 +1901,19 @@
         <v>17958</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11026</v>
+        <v>11049</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28455</v>
+        <v>27771</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1070319511369982</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06571887402865804</v>
+        <v>0.06585295595725897</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1695931269200738</v>
+        <v>0.1655173686111878</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -1922,19 +1922,19 @@
         <v>115412</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>97276</v>
+        <v>96845</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>136122</v>
+        <v>137048</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1627413886749643</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1371682441057798</v>
+        <v>0.1365607721545826</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1919451843160229</v>
+        <v>0.1932513476154315</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>4329</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11741</v>
+        <v>11374</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003498479204117895</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001250822837529783</v>
+        <v>0.001237808846236177</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009488327900064786</v>
+        <v>0.009191591350283149</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2047,19 +2047,19 @@
         <v>3908</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9845</v>
+        <v>9835</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005471655681035437</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001391313527990563</v>
+        <v>0.001379692041635034</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01378357085961932</v>
+        <v>0.01376837900245174</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -2068,19 +2068,19 @@
         <v>8237</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3661</v>
+        <v>3677</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16290</v>
+        <v>15623</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004220633436914828</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001875728867872697</v>
+        <v>0.001884153695165315</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008346433540137265</v>
+        <v>0.008004847844021402</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>30535</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>20958</v>
+        <v>21838</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>43021</v>
+        <v>41074</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0246766439074978</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01693732142690476</v>
+        <v>0.01764831249856782</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03476730833244802</v>
+        <v>0.03319439849565525</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -2118,19 +2118,19 @@
         <v>30331</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20531</v>
+        <v>20857</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43207</v>
+        <v>42369</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04246289880206967</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02874387881897603</v>
+        <v>0.02920001209332862</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06049011202989524</v>
+        <v>0.05931609752057355</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>62</v>
@@ -2139,19 +2139,19 @@
         <v>60865</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>47136</v>
+        <v>47726</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>76840</v>
+        <v>76978</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03118615758150306</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0241513978872912</v>
+        <v>0.02445387936832036</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03937128003262684</v>
+        <v>0.0394419583038308</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>205711</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>180391</v>
+        <v>180029</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>232337</v>
+        <v>230993</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1662454038079773</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1457833784769837</v>
+        <v>0.1454910634129049</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1877637354674</v>
+        <v>0.1866778044407403</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>138</v>
@@ -2189,19 +2189,19 @@
         <v>140544</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>120126</v>
+        <v>120642</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>160971</v>
+        <v>163454</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.196761287551049</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1681765980183511</v>
+        <v>0.1688994095716086</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2253595192881331</v>
+        <v>0.228835857538407</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>347</v>
@@ -2210,19 +2210,19 @@
         <v>346254</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>317149</v>
+        <v>315549</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>383230</v>
+        <v>381852</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1774137786950651</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.162500932011052</v>
+        <v>0.161681215008303</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1963592238728602</v>
+        <v>0.1956532987011344</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>810712</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>774851</v>
+        <v>777502</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>840463</v>
+        <v>845066</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6551788393914425</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6261977195750128</v>
+        <v>0.6283397273467038</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6792214749258415</v>
+        <v>0.6829421382495108</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>414</v>
@@ -2260,19 +2260,19 @@
         <v>424130</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>399870</v>
+        <v>397926</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>453247</v>
+        <v>451001</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5937824093220078</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5598190223776849</v>
+        <v>0.5570964931819089</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6345469700304415</v>
+        <v>0.6314023361466429</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1213</v>
@@ -2281,19 +2281,19 @@
         <v>1234842</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1187745</v>
+        <v>1191627</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1276640</v>
+        <v>1277291</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6327086283525766</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6085767005300434</v>
+        <v>0.6105662185626001</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6541250933828257</v>
+        <v>0.6544586372098514</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>186104</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>160708</v>
+        <v>160778</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>211467</v>
+        <v>213119</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1504006336889645</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.129876690237698</v>
+        <v>0.1299334512300875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1708971485834209</v>
+        <v>0.1722321764049246</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>108</v>
@@ -2331,19 +2331,19 @@
         <v>115373</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>96106</v>
+        <v>96667</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>138507</v>
+        <v>137377</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1615217486438381</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1345479484875456</v>
+        <v>0.1353339705656441</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1939106500339612</v>
+        <v>0.192327676271992</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>287</v>
@@ -2352,19 +2352,19 @@
         <v>301477</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>267298</v>
+        <v>270715</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>333139</v>
+        <v>335127</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1544708019339404</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1369583947055092</v>
+        <v>0.1387090801480597</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1706938483571861</v>
+        <v>0.1717125891675518</v>
       </c>
     </row>
     <row r="27">
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6084</v>
+        <v>6508</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003292400861557754</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0106967233227898</v>
+        <v>0.01144206834660951</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6595</v>
+        <v>5806</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002036924363360692</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.007173519289434513</v>
+        <v>0.006315593012433128</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>8909</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4330</v>
+        <v>4610</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15803</v>
+        <v>15953</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02541404033716054</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01235048488712074</v>
+        <v>0.01315186664668392</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04508006055888677</v>
+        <v>0.04550875874382449</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>34</v>
@@ -2540,19 +2540,19 @@
         <v>35224</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24563</v>
+        <v>24795</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>47912</v>
+        <v>47411</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06193155206362567</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04318700550070789</v>
+        <v>0.04359525232454953</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08424082669321427</v>
+        <v>0.08336034178260125</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>44</v>
@@ -2561,19 +2561,19 @@
         <v>44133</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>32379</v>
+        <v>32474</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>58740</v>
+        <v>59592</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04800649260913362</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03522058393399918</v>
+        <v>0.03532422168683122</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0638956972378816</v>
+        <v>0.06482261719878024</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>63562</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>49868</v>
+        <v>49329</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>78179</v>
+        <v>78835</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1813174281650037</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1422546904778385</v>
+        <v>0.1407175132955943</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2230136702666171</v>
+        <v>0.2248853592703732</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>131</v>
@@ -2611,19 +2611,19 @@
         <v>138363</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>118798</v>
+        <v>118802</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>159867</v>
+        <v>159796</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2432756103250851</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2088747712750628</v>
+        <v>0.2088827518350313</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2810842538182987</v>
+        <v>0.2809587476890665</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>191</v>
@@ -2632,19 +2632,19 @@
         <v>201925</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>179293</v>
+        <v>180401</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>229974</v>
+        <v>232256</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2196493737749613</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1950306097073561</v>
+        <v>0.196235797165601</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2501607178135435</v>
+        <v>0.2526424668905626</v>
       </c>
     </row>
     <row r="31">
@@ -2661,19 +2661,19 @@
         <v>220026</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>200138</v>
+        <v>199304</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>237956</v>
+        <v>237334</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6276493754274661</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5709176420143768</v>
+        <v>0.5685376830244321</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6787966132188947</v>
+        <v>0.6770237684822342</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>316</v>
@@ -2682,19 +2682,19 @@
         <v>332043</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>308166</v>
+        <v>306472</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>355777</v>
+        <v>355635</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5838090005046724</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5418284270907248</v>
+        <v>0.5388505475393897</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6255402956574148</v>
+        <v>0.625290577715801</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>531</v>
@@ -2703,19 +2703,19 @@
         <v>552068</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>523138</v>
+        <v>520784</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>581138</v>
+        <v>580482</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6005264546368141</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5690572690280585</v>
+        <v>0.5664967754371127</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6321480615940384</v>
+        <v>0.631433974861127</v>
       </c>
     </row>
     <row r="32">
@@ -2732,19 +2732,19 @@
         <v>58059</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>45243</v>
+        <v>44333</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>76162</v>
+        <v>73559</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1656191560703697</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1290616159786821</v>
+        <v>0.1264662306669728</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2172609009679699</v>
+        <v>0.2098366558819617</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>56</v>
@@ -2753,19 +2753,19 @@
         <v>61250</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>46667</v>
+        <v>47494</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>77904</v>
+        <v>77816</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1076914362450591</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08205189445494475</v>
+        <v>0.08350650901379292</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1369727223581674</v>
+        <v>0.1368185309280334</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>111</v>
@@ -2774,19 +2774,19 @@
         <v>119308</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>100061</v>
+        <v>99598</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>143961</v>
+        <v>142726</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1297807546157303</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1088439492214995</v>
+        <v>0.1083404845193277</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.15659698028504</v>
+        <v>0.1552533803533819</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>7610</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3215</v>
+        <v>3084</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15226</v>
+        <v>15834</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.00610276017838112</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002578553654117572</v>
+        <v>0.002473017135356217</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01221063337696828</v>
+        <v>0.01269810912871714</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -2912,19 +2912,19 @@
         <v>7610</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2946</v>
+        <v>2977</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>15528</v>
+        <v>15281</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.004924997384382864</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001906560935756255</v>
+        <v>0.001926783602016544</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0100496156714346</v>
+        <v>0.009889228096345543</v>
       </c>
     </row>
     <row r="35">
@@ -2941,19 +2941,19 @@
         <v>6536</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2707</v>
+        <v>2763</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12894</v>
+        <v>13207</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02191936137133857</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.009077812326305314</v>
+        <v>0.00926526480875246</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04323896143295856</v>
+        <v>0.04428737533353248</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>84</v>
@@ -2962,19 +2962,19 @@
         <v>86210</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>68456</v>
+        <v>70169</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>103662</v>
+        <v>105722</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06913550829983726</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05489786773721108</v>
+        <v>0.05627123879458173</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0831312014076198</v>
+        <v>0.08478278799435418</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>91</v>
@@ -2983,19 +2983,19 @@
         <v>92746</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>74557</v>
+        <v>75298</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>114985</v>
+        <v>111133</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06002333290658883</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04825130668450808</v>
+        <v>0.04873104456510297</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07441557260787472</v>
+        <v>0.07192267532877121</v>
       </c>
     </row>
     <row r="36">
@@ -3012,19 +3012,19 @@
         <v>6158</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2580</v>
+        <v>2671</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13159</v>
+        <v>13718</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02065070825414132</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.008651200539289297</v>
+        <v>0.008955720672494423</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04412816140510616</v>
+        <v>0.04600300716249042</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>347</v>
@@ -3033,19 +3033,19 @@
         <v>357495</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>323962</v>
+        <v>326913</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>388240</v>
+        <v>388705</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2866902051666123</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2597989906239695</v>
+        <v>0.2621651051648128</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.311345824311127</v>
+        <v>0.3117190252533162</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>353</v>
@@ -3054,19 +3054,19 @@
         <v>363653</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>331984</v>
+        <v>330526</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>399386</v>
+        <v>397901</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.235347630325233</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2148523657111529</v>
+        <v>0.2139089276617121</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2584735760789661</v>
+        <v>0.2575125203867327</v>
       </c>
     </row>
     <row r="37">
@@ -3083,19 +3083,19 @@
         <v>155608</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>138205</v>
+        <v>139005</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>171493</v>
+        <v>172568</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5218214195685986</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4634609525034929</v>
+        <v>0.4661442055920953</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.575091355372363</v>
+        <v>0.5786978898135299</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>640</v>
@@ -3104,19 +3104,19 @@
         <v>641037</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>608435</v>
+        <v>606191</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>674626</v>
+        <v>674882</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5140746069625455</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.487930188003142</v>
+        <v>0.4861307786643527</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5410113529313155</v>
+        <v>0.5412164249360318</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>799</v>
@@ -3125,19 +3125,19 @@
         <v>796644</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>754899</v>
+        <v>754370</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>834367</v>
+        <v>837007</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5155696530388778</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4885535846471368</v>
+        <v>0.4882111552383385</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5399831730225102</v>
+        <v>0.5416918564138374</v>
       </c>
     </row>
     <row r="38">
@@ -3154,19 +3154,19 @@
         <v>129899</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>113222</v>
+        <v>112617</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>146884</v>
+        <v>147225</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4356085108059215</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3796825655981688</v>
+        <v>0.3776560603061505</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4925659947917802</v>
+        <v>0.4937118513984598</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>158</v>
@@ -3175,19 +3175,19 @@
         <v>154621</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>132444</v>
+        <v>134305</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>177182</v>
+        <v>181187</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1239969193926239</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1062124521878327</v>
+        <v>0.1077047152145187</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1420896260382345</v>
+        <v>0.1453017361283779</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>292</v>
@@ -3196,19 +3196,19 @@
         <v>284519</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>258803</v>
+        <v>251854</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>316647</v>
+        <v>313826</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1841343863449175</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1674916980394859</v>
+        <v>0.1629942902604678</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2049266023201656</v>
+        <v>0.2031010470174131</v>
       </c>
     </row>
     <row r="39">
@@ -3300,19 +3300,19 @@
         <v>7077</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2793</v>
+        <v>2828</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15294</v>
+        <v>14793</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002166108803140777</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0008548845568708341</v>
+        <v>0.0008655001680465322</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.004680766741224238</v>
+        <v>0.004527556598331007</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>19</v>
@@ -3321,19 +3321,19 @@
         <v>19793</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>12459</v>
+        <v>12368</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>30572</v>
+        <v>30289</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005862384524234101</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003690002394777204</v>
+        <v>0.003663007009900905</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.009054669533065145</v>
+        <v>0.008970853299622989</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>26</v>
@@ -3342,19 +3342,19 @@
         <v>26871</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>17634</v>
+        <v>17966</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>39048</v>
+        <v>39378</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00404455974043912</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002654190221804855</v>
+        <v>0.002704226367902471</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.00587747773781157</v>
+        <v>0.005927043546681912</v>
       </c>
     </row>
     <row r="41">
@@ -3371,19 +3371,19 @@
         <v>69112</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>54383</v>
+        <v>55584</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>87082</v>
+        <v>86192</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02115225965893048</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01664442672521808</v>
+        <v>0.01701184624311937</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02665216392092873</v>
+        <v>0.02637953466007524</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>170</v>
@@ -3392,19 +3392,19 @@
         <v>174429</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>150828</v>
+        <v>151645</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>200376</v>
+        <v>201242</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05166234797117852</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04467207376578251</v>
+        <v>0.0449140084191065</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05934705485506571</v>
+        <v>0.0596035564365544</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>242</v>
@@ -3413,19 +3413,19 @@
         <v>243542</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>215998</v>
+        <v>211950</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>276587</v>
+        <v>271814</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03665751638535383</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03251169503065542</v>
+        <v>0.03190232794348137</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04163149345200549</v>
+        <v>0.04091300206462624</v>
       </c>
     </row>
     <row r="42">
@@ -3442,19 +3442,19 @@
         <v>444826</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>402374</v>
+        <v>406988</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>484993</v>
+        <v>488050</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1361420134567415</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1231494207498468</v>
+        <v>0.1245615693273769</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1484353640370288</v>
+        <v>0.1493710695179445</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>744</v>
@@ -3463,19 +3463,19 @@
         <v>767603</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>721129</v>
+        <v>715172</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>821169</v>
+        <v>813379</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2273479933067912</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2135834219117904</v>
+        <v>0.2118190670559766</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2432131714025119</v>
+        <v>0.2409058284183445</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1186</v>
@@ -3484,19 +3484,19 @@
         <v>1212429</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1150544</v>
+        <v>1150514</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1279814</v>
+        <v>1272146</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1824929816377253</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1731782186244095</v>
+        <v>0.1731736448399231</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1926356794111408</v>
+        <v>0.1914815099751569</v>
       </c>
     </row>
     <row r="43">
@@ -3513,19 +3513,19 @@
         <v>2103149</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2046389</v>
+        <v>2045325</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>2159432</v>
+        <v>2157535</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.6436831706107566</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6263115981859891</v>
+        <v>0.6259858534061093</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.6609091598045443</v>
+        <v>0.660328582532664</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1901</v>
@@ -3534,19 +3534,19 @@
         <v>1937909</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1879172</v>
+        <v>1879479</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1998529</v>
+        <v>1994132</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.5739680705769263</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.5565714982220967</v>
+        <v>0.5566623571906218</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.5919224016144907</v>
+        <v>0.5906201876331096</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>3957</v>
@@ -3555,19 +3555,19 @@
         <v>4041058</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3962971</v>
+        <v>3966210</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4125611</v>
+        <v>4117352</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.6082538885755786</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.5965004369800384</v>
+        <v>0.5969879575346237</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.6209807290299536</v>
+        <v>0.619737598296985</v>
       </c>
     </row>
     <row r="44">
@@ -3584,19 +3584,19 @@
         <v>643202</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>596964</v>
+        <v>598093</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>689493</v>
+        <v>688032</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1968564474704306</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1827050834164688</v>
+        <v>0.1830506473008336</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2110241326674954</v>
+        <v>0.2105769992416184</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>460</v>
@@ -3605,19 +3605,19 @@
         <v>476601</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>437095</v>
+        <v>435878</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>519757</v>
+        <v>518784</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1411592036208699</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1294584743519643</v>
+        <v>0.1290979470247086</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1539410386508794</v>
+        <v>0.153652881140354</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1087</v>
@@ -3626,19 +3626,19 @@
         <v>1119803</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1065069</v>
+        <v>1057718</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1180462</v>
+        <v>1179580</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1685510536609031</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1603125993798273</v>
+        <v>0.1592061886538396</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1776813829201206</v>
+        <v>0.1775485487472101</v>
       </c>
     </row>
     <row r="45">
@@ -4019,19 +4019,19 @@
         <v>4065</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11524</v>
+        <v>12041</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009424722189653588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00237387316215304</v>
+        <v>0.002346224027302648</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02671564776494123</v>
+        <v>0.02791398074276837</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -4040,19 +4040,19 @@
         <v>4922</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11984</v>
+        <v>12299</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01575986652924402</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003522124241055042</v>
+        <v>0.003559551961539546</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03837379795082839</v>
+        <v>0.0393826923857486</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -4061,19 +4061,19 @@
         <v>8987</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4042</v>
+        <v>3926</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17821</v>
+        <v>18220</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01208516056844783</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005434788766430484</v>
+        <v>0.005279904521265537</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0239643797008687</v>
+        <v>0.0245010241767381</v>
       </c>
     </row>
     <row r="6">
@@ -4090,19 +4090,19 @@
         <v>43891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31660</v>
+        <v>31684</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58486</v>
+        <v>59656</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.10175152711793</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0733985260178428</v>
+        <v>0.07345415547947279</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1355890340278813</v>
+        <v>0.1382995838989063</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -4111,19 +4111,19 @@
         <v>34943</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25143</v>
+        <v>24860</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49495</v>
+        <v>49138</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1118923629277622</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08051026176479031</v>
+        <v>0.07960442556333711</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1584908596980991</v>
+        <v>0.1573447514410839</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -4132,19 +4132,19 @@
         <v>78834</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>62311</v>
+        <v>62555</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>99620</v>
+        <v>97790</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1060101623336941</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08379120769205735</v>
+        <v>0.084120380298388</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1339621549055152</v>
+        <v>0.131500914623425</v>
       </c>
     </row>
     <row r="7">
@@ -4161,19 +4161,19 @@
         <v>260456</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>236848</v>
+        <v>240080</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>280848</v>
+        <v>281568</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6038164051271531</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5490848342270496</v>
+        <v>0.5565780536100001</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6510903121862363</v>
+        <v>0.6527609886278558</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>201</v>
@@ -4182,19 +4182,19 @@
         <v>220835</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>203817</v>
+        <v>204107</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>238735</v>
+        <v>236175</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7071414032005198</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6526473059613663</v>
+        <v>0.6535775267415942</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7644603219221884</v>
+        <v>0.7562626680732297</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>446</v>
@@ -4203,19 +4203,19 @@
         <v>481291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>453118</v>
+        <v>454303</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>506492</v>
+        <v>510103</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6472076485823886</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6093223759695923</v>
+        <v>0.6109157552509921</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6810962216275748</v>
+        <v>0.6859519659548559</v>
       </c>
     </row>
     <row r="8">
@@ -4232,19 +4232,19 @@
         <v>122938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>102210</v>
+        <v>102131</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>144710</v>
+        <v>142931</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2850073455652633</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2369537578123</v>
+        <v>0.2367716058204842</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3354820574025556</v>
+        <v>0.3313569057417931</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -4253,19 +4253,19 @@
         <v>51593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38239</v>
+        <v>37989</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65810</v>
+        <v>65392</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.165206367342474</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1224465243709036</v>
+        <v>0.1216447716422429</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2107324585211069</v>
+        <v>0.2093952776703755</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>157</v>
@@ -4274,19 +4274,19 @@
         <v>174531</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>150318</v>
+        <v>150726</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>198931</v>
+        <v>198528</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2346970285154695</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2021381207618554</v>
+        <v>0.2026858865410326</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2675093335507501</v>
+        <v>0.266966805677654</v>
       </c>
     </row>
     <row r="9">
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5106</v>
+        <v>5180</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002438804166189131</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01228040231134951</v>
+        <v>0.0124579491731425</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7843</v>
+        <v>6907</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006626069614813044</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0233430936677115</v>
+        <v>0.02055815193870838</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -4420,19 +4420,19 @@
         <v>3240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8769</v>
+        <v>8797</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004310109640264979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001346417898173086</v>
+        <v>0.001338700251844997</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0116638889194029</v>
+        <v>0.01170155515100271</v>
       </c>
     </row>
     <row r="11">
@@ -4449,19 +4449,19 @@
         <v>4224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11762</v>
+        <v>12235</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01015933865678959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002247990038400889</v>
+        <v>0.002277781637096527</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02828836367176643</v>
+        <v>0.02942568607612028</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -4470,19 +4470,19 @@
         <v>6664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2854</v>
+        <v>2703</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14527</v>
+        <v>13707</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01983348107040799</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008494650180581141</v>
+        <v>0.008044216820816819</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04323993551771576</v>
+        <v>0.04079901780998219</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -4491,19 +4491,19 @@
         <v>10888</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5525</v>
+        <v>5110</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22183</v>
+        <v>20067</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01448275112674485</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007349325671953382</v>
+        <v>0.006796892822830657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02950757488489165</v>
+        <v>0.02669245678460094</v>
       </c>
     </row>
     <row r="12">
@@ -4520,19 +4520,19 @@
         <v>44579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32026</v>
+        <v>32079</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58708</v>
+        <v>60651</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1072110266350631</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07702218825379978</v>
+        <v>0.07714836913177235</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1411898440870397</v>
+        <v>0.1458626187208043</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -4541,19 +4541,19 @@
         <v>38995</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26888</v>
+        <v>27284</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53163</v>
+        <v>52402</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1160660642498636</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08002926709464507</v>
+        <v>0.08120752183745236</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1582370157709487</v>
+        <v>0.1559713675023241</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>75</v>
@@ -4562,19 +4562,19 @@
         <v>83574</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66854</v>
+        <v>67713</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>104930</v>
+        <v>103555</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1111683779339089</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08892733495973153</v>
+        <v>0.0900698701707959</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1395752365253692</v>
+        <v>0.1377459975270254</v>
       </c>
     </row>
     <row r="13">
@@ -4591,19 +4591,19 @@
         <v>284733</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>262979</v>
+        <v>264795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>305142</v>
+        <v>306461</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.684771697733294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6324546921308097</v>
+        <v>0.6368230470575656</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7338555058833378</v>
+        <v>0.7370266414445474</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>216</v>
@@ -4612,19 +4612,19 @@
         <v>240031</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>221471</v>
+        <v>220153</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>257022</v>
+        <v>256932</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7144362649912792</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.65919394516471</v>
+        <v>0.6552701880349823</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7650074315270355</v>
+        <v>0.7647413846454274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>473</v>
@@ -4633,19 +4633,19 @@
         <v>524764</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>494611</v>
+        <v>495862</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>549182</v>
+        <v>550774</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6980289100540945</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6579194316027065</v>
+        <v>0.6595835070391092</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7305093506474509</v>
+        <v>0.7326268492135872</v>
       </c>
     </row>
     <row r="14">
@@ -4662,19 +4662,19 @@
         <v>81257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64045</v>
+        <v>63735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99910</v>
+        <v>100170</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1954191328086641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1540263939069842</v>
+        <v>0.1532813690454394</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2402786829442943</v>
+        <v>0.2409058336026321</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -4683,19 +4683,19 @@
         <v>48057</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35945</v>
+        <v>36033</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62811</v>
+        <v>64462</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1430381200736361</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1069862911843405</v>
+        <v>0.1072498343211798</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.186952498658204</v>
+        <v>0.1918660842797571</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>115</v>
@@ -4704,19 +4704,19 @@
         <v>129314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>108478</v>
+        <v>108847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154453</v>
+        <v>152366</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1720098512449869</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1442944942774143</v>
+        <v>0.1447852522169059</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2054500389610971</v>
+        <v>0.2026733679135705</v>
       </c>
     </row>
     <row r="15">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7271</v>
+        <v>8028</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003600381635450604</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0116194030313282</v>
+        <v>0.01282989691341878</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7549</v>
+        <v>7398</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002548934006936461</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008540774364075594</v>
+        <v>0.008369684984557162</v>
       </c>
     </row>
     <row r="17">
@@ -4871,19 +4871,19 @@
         <v>14300</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8519</v>
+        <v>8217</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23780</v>
+        <v>23226</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02285392561020665</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01361398371594862</v>
+        <v>0.01313126022374075</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03800299077405286</v>
+        <v>0.037118069632497</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -4892,19 +4892,19 @@
         <v>11255</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5970</v>
+        <v>6247</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20414</v>
+        <v>20139</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04360603148395689</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02312816313569375</v>
+        <v>0.02420369972317786</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07908895266163855</v>
+        <v>0.07802119560356038</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -4913,19 +4913,19 @@
         <v>25556</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16297</v>
+        <v>16259</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37156</v>
+        <v>36776</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02891432551136832</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01843860637213795</v>
+        <v>0.01839578376234125</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04203856767350909</v>
+        <v>0.04160854715775703</v>
       </c>
     </row>
     <row r="18">
@@ -4942,19 +4942,19 @@
         <v>115714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>97681</v>
+        <v>95843</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>139125</v>
+        <v>136650</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1849263430139579</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1561064803261594</v>
+        <v>0.1531703106406462</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2223409098044677</v>
+        <v>0.2183854950408469</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -4963,19 +4963,19 @@
         <v>48298</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>35916</v>
+        <v>36248</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62368</v>
+        <v>61830</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1871178155554772</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1391470667039037</v>
+        <v>0.1404342866867189</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2416255210493525</v>
+        <v>0.2395441931270516</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>148</v>
@@ -4984,19 +4984,19 @@
         <v>164012</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>140584</v>
+        <v>143106</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>188497</v>
+        <v>191850</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1855663358925034</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1590591303275715</v>
+        <v>0.1619126828247806</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2132686250586465</v>
+        <v>0.2170629285345309</v>
       </c>
     </row>
     <row r="19">
@@ -5013,19 +5013,19 @@
         <v>405473</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>380382</v>
+        <v>378206</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>428703</v>
+        <v>429394</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6479996315488844</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6079004056951203</v>
+        <v>0.6044237859750219</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6851241690812108</v>
+        <v>0.686228324737944</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>165</v>
@@ -5034,19 +5034,19 @@
         <v>175840</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>160415</v>
+        <v>159382</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>191647</v>
+        <v>190302</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6812399850500622</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6214823404453212</v>
+        <v>0.6174815877317213</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7424816791683282</v>
+        <v>0.7372700907090747</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>547</v>
@@ -5055,19 +5055,19 @@
         <v>581312</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>549916</v>
+        <v>549134</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>609484</v>
+        <v>607393</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6577070721478616</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6221857792726136</v>
+        <v>0.6213004256010032</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6895821194180366</v>
+        <v>0.6872153889598176</v>
       </c>
     </row>
     <row r="20">
@@ -5084,19 +5084,19 @@
         <v>87990</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70607</v>
+        <v>70240</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>106946</v>
+        <v>105181</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1406197181915004</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1128388053432896</v>
+        <v>0.1122522558240937</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1709140715392189</v>
+        <v>0.1680937688874438</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -5105,19 +5105,19 @@
         <v>22724</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14227</v>
+        <v>14793</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32952</v>
+        <v>33939</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08803616791050359</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0551196736030594</v>
+        <v>0.05731012307401193</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1276641375335751</v>
+        <v>0.1314886431640664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>108</v>
@@ -5126,19 +5126,19 @@
         <v>110713</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>91539</v>
+        <v>91899</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>131363</v>
+        <v>131106</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1252633324413302</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1035688261833438</v>
+        <v>0.1039765262832058</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1486263213260265</v>
+        <v>0.1483360665268472</v>
       </c>
     </row>
     <row r="21">
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5792</v>
+        <v>6152</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0009475183171661036</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005062797719598785</v>
+        <v>0.005377479068920969</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -5251,19 +5251,19 @@
         <v>6863</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2687</v>
+        <v>2668</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13958</v>
+        <v>15281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009021479508486184</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003531562756028316</v>
+        <v>0.003506671035003701</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01834826076845612</v>
+        <v>0.02008720886594624</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -5272,19 +5272,19 @@
         <v>7947</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3633</v>
+        <v>3280</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15798</v>
+        <v>15925</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004172009622451411</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001907412860275842</v>
+        <v>0.001722085271828182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00829350293459165</v>
+        <v>0.008360273085130656</v>
       </c>
     </row>
     <row r="23">
@@ -5301,19 +5301,19 @@
         <v>46249</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>33734</v>
+        <v>34322</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>62563</v>
+        <v>62420</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0404239562371637</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02948504578204175</v>
+        <v>0.02999922992789563</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05468298983981529</v>
+        <v>0.05455788371173281</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -5322,19 +5322,19 @@
         <v>18121</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10606</v>
+        <v>10843</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28404</v>
+        <v>28741</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02382055622259683</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01394172571926413</v>
+        <v>0.01425330258091801</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03733776127324743</v>
+        <v>0.03778067437182799</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>56</v>
@@ -5343,19 +5343,19 @@
         <v>64370</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>49015</v>
+        <v>48719</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>82386</v>
+        <v>83912</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03379306989568606</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02573200115549575</v>
+        <v>0.02557616092754297</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04325085471509595</v>
+        <v>0.04405209681975102</v>
       </c>
     </row>
     <row r="24">
@@ -5372,19 +5372,19 @@
         <v>201928</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>176189</v>
+        <v>175990</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>231853</v>
+        <v>229791</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1764938059415413</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1539965502483835</v>
+        <v>0.1538226414514013</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2026495580280018</v>
+        <v>0.2008477864827944</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>123</v>
@@ -5393,19 +5393,19 @@
         <v>135509</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>115047</v>
+        <v>114748</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>160096</v>
+        <v>160308</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1781285844327571</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1512307754216513</v>
+        <v>0.1508387516642926</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2104495655379064</v>
+        <v>0.2107283481257892</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>308</v>
@@ -5414,19 +5414,19 @@
         <v>337436</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>303713</v>
+        <v>300810</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>376209</v>
+        <v>372261</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1771466860961622</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.159442562039591</v>
+        <v>0.1579185531923007</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1975014300237513</v>
+        <v>0.1954288978747141</v>
       </c>
     </row>
     <row r="25">
@@ -5443,19 +5443,19 @@
         <v>689690</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>651522</v>
+        <v>652561</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>722351</v>
+        <v>724109</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6028195893896244</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5694592681124054</v>
+        <v>0.5703669856711205</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.631366758596144</v>
+        <v>0.6329035148405843</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>465</v>
@@ -5464,19 +5464,19 @@
         <v>498520</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>469842</v>
+        <v>470043</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>524039</v>
+        <v>525575</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6553134509088808</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6176163298754723</v>
+        <v>0.6178795384579246</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.68885909390925</v>
+        <v>0.6908781305851422</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1112</v>
@@ -5485,19 +5485,19 @@
         <v>1188210</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1145290</v>
+        <v>1147335</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1232466</v>
+        <v>1231095</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6237840201118904</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6012519103241587</v>
+        <v>0.6023253505556712</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6470173167076206</v>
+        <v>0.6462974459474164</v>
       </c>
     </row>
     <row r="26">
@@ -5514,19 +5514,19 @@
         <v>205156</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>181595</v>
+        <v>177612</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>234230</v>
+        <v>230838</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1793151301145045</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1587220557960067</v>
+        <v>0.155241038186214</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2047271633512996</v>
+        <v>0.2017627543868731</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>95</v>
@@ -5535,19 +5535,19 @@
         <v>101722</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>82649</v>
+        <v>84090</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>124421</v>
+        <v>122378</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1337159289272791</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1086437683254227</v>
+        <v>0.1105373256903106</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1635532862045751</v>
+        <v>0.1608681775698043</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>291</v>
@@ -5556,19 +5556,19 @@
         <v>306878</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>276658</v>
+        <v>275202</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>344209</v>
+        <v>340520</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1611042142738099</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1452392121451463</v>
+        <v>0.1444747543689193</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1807020856403022</v>
+        <v>0.178765646444935</v>
       </c>
     </row>
     <row r="27">
@@ -5660,19 +5660,19 @@
         <v>5038</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1930</v>
+        <v>1946</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12245</v>
+        <v>11096</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0100199108176297</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003839726063321924</v>
+        <v>0.003871355714078194</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02435499190587322</v>
+        <v>0.02206991632988978</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -5681,19 +5681,19 @@
         <v>10159</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4994</v>
+        <v>4974</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17157</v>
+        <v>18391</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01337367594948437</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006574529437487067</v>
+        <v>0.006547714309865445</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02258770304671297</v>
+        <v>0.02421109744705787</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>15</v>
@@ -5702,19 +5702,19 @@
         <v>15196</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>9155</v>
+        <v>8782</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25724</v>
+        <v>24613</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0120379671926119</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007252257284905457</v>
+        <v>0.006956744067109382</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02037811992492639</v>
+        <v>0.01949769036275709</v>
       </c>
     </row>
     <row r="29">
@@ -5731,19 +5731,19 @@
         <v>8292</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4040</v>
+        <v>4047</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16575</v>
+        <v>16831</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01649256597242816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00803501374548935</v>
+        <v>0.008050049348172003</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03296759919400019</v>
+        <v>0.03347650337662881</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>43</v>
@@ -5752,19 +5752,19 @@
         <v>45506</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34038</v>
+        <v>33082</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>60531</v>
+        <v>59015</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05990866471260853</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04481083789452891</v>
+        <v>0.04355240463619436</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07968855876770911</v>
+        <v>0.07769245657153197</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>51</v>
@@ -5773,19 +5773,19 @@
         <v>53798</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>40601</v>
+        <v>41054</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>69518</v>
+        <v>68619</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0426172739930596</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03216315479340991</v>
+        <v>0.03252206253901225</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05507043453663923</v>
+        <v>0.05435841201770307</v>
       </c>
     </row>
     <row r="30">
@@ -5802,19 +5802,19 @@
         <v>68718</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>54750</v>
+        <v>55352</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>85518</v>
+        <v>86036</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1366829822508821</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1088993991166847</v>
+        <v>0.1100971368109758</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1700974312906958</v>
+        <v>0.1711272468466221</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>194</v>
@@ -5823,19 +5823,19 @@
         <v>210676</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>184475</v>
+        <v>184995</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>236431</v>
+        <v>234287</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.277353712764983</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2428600883963708</v>
+        <v>0.2435446137389727</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3112605879373364</v>
+        <v>0.308438154759209</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>259</v>
@@ -5844,19 +5844,19 @@
         <v>279394</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>247747</v>
+        <v>251325</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>310682</v>
+        <v>309661</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2213285830387927</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1962582575000685</v>
+        <v>0.199093320009952</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2461137957347551</v>
+        <v>0.2453049566426984</v>
       </c>
     </row>
     <row r="31">
@@ -5873,19 +5873,19 @@
         <v>318144</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>296581</v>
+        <v>298217</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>338921</v>
+        <v>340158</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6327968200160933</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5899073583625719</v>
+        <v>0.593161920390828</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6741227605171288</v>
+        <v>0.6765831177639635</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>389</v>
@@ -5894,19 +5894,19 @@
         <v>421589</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>395225</v>
+        <v>396870</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>450499</v>
+        <v>452277</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.55502087732753</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5203125844298953</v>
+        <v>0.5224776039722911</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5930802171380778</v>
+        <v>0.5954209008684336</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>689</v>
@@ -5915,19 +5915,19 @@
         <v>739733</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>700943</v>
+        <v>702695</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>770661</v>
+        <v>778244</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5859968114310833</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5552686681725109</v>
+        <v>0.5566561100114332</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6104974057403678</v>
+        <v>0.6165044259584128</v>
       </c>
     </row>
     <row r="32">
@@ -5944,19 +5944,19 @@
         <v>102567</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>85501</v>
+        <v>86737</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>120930</v>
+        <v>120821</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2040077209429668</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1700647287783791</v>
+        <v>0.1725230948969472</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2405329045346042</v>
+        <v>0.2403171384661711</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>65</v>
@@ -5965,19 +5965,19 @@
         <v>71662</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>57295</v>
+        <v>57436</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>93070</v>
+        <v>89357</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0943430692453941</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0754282390706094</v>
+        <v>0.07561479440267865</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1225256759160952</v>
+        <v>0.1176384220033219</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>167</v>
@@ -5986,19 +5986,19 @@
         <v>174229</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>150821</v>
+        <v>151393</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>200137</v>
+        <v>201856</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1380193643444525</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1194763803626369</v>
+        <v>0.1199291998900648</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1585431937641923</v>
+        <v>0.1599052690533032</v>
       </c>
     </row>
     <row r="33">
@@ -6103,7 +6103,7 @@
         <v>9771</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4912</v>
+        <v>4829</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>18180</v>
@@ -6112,10 +6112,10 @@
         <v>0.008881088714035959</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004464392403619266</v>
+        <v>0.004388993550831083</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01652386045303119</v>
+        <v>0.01652408334682495</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -6124,19 +6124,19 @@
         <v>9771</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4831</v>
+        <v>4092</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>17591</v>
+        <v>18009</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007195133212885163</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00355763929419541</v>
+        <v>0.003013367632006266</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01295300537328514</v>
+        <v>0.01326086105353062</v>
       </c>
     </row>
     <row r="35">
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7458</v>
+        <v>6430</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.007460552605588231</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02892828901219307</v>
+        <v>0.02494157982757461</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>70</v>
@@ -6174,19 +6174,19 @@
         <v>75442</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>60485</v>
+        <v>61130</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>94696</v>
+        <v>94405</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06856917010295967</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05497423696877241</v>
+        <v>0.05556059264365287</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08606854981418301</v>
+        <v>0.0858045071783303</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>72</v>
@@ -6195,19 +6195,19 @@
         <v>77366</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>60947</v>
+        <v>62463</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>96640</v>
+        <v>96425</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05696851919688473</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0448787747138037</v>
+        <v>0.04599514896118605</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07116107927281441</v>
+        <v>0.07100292654393343</v>
       </c>
     </row>
     <row r="36">
@@ -6224,19 +6224,19 @@
         <v>6408</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14743</v>
+        <v>13725</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02485628929190669</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.007700307983710514</v>
+        <v>0.007761100804705917</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05718539768415266</v>
+        <v>0.05323798701294152</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>274</v>
@@ -6245,19 +6245,19 @@
         <v>289536</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>260723</v>
+        <v>262606</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>319571</v>
+        <v>320995</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2631590108850022</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2369707448444425</v>
+        <v>0.238681921883106</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2904569882586877</v>
+        <v>0.2917519082858259</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>279</v>
@@ -6266,19 +6266,19 @@
         <v>295945</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>266013</v>
+        <v>265918</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>326689</v>
+        <v>326002</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2179204374008618</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1958802453150809</v>
+        <v>0.1958097919508213</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2405595288953629</v>
+        <v>0.240053114718185</v>
       </c>
     </row>
     <row r="37">
@@ -6295,19 +6295,19 @@
         <v>129688</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>111766</v>
+        <v>112775</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>145964</v>
+        <v>145500</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5030458709911754</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4335277634763809</v>
+        <v>0.4374398613661301</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5661770365321711</v>
+        <v>0.5643770871828572</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>529</v>
@@ -6316,19 +6316,19 @@
         <v>565770</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>533104</v>
+        <v>530691</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>600150</v>
+        <v>598315</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.514227345098424</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4845366837137256</v>
+        <v>0.4823438098139642</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5454748347337645</v>
+        <v>0.5438073592048066</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>657</v>
@@ -6337,19 +6337,19 @@
         <v>695459</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>659482</v>
+        <v>658643</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>730608</v>
+        <v>730139</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5121046923033565</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4856127218326624</v>
+        <v>0.4849955375243539</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5379874310059835</v>
+        <v>0.5376415576369419</v>
       </c>
     </row>
     <row r="38">
@@ -6366,19 +6366,19 @@
         <v>119786</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>103652</v>
+        <v>104307</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>134868</v>
+        <v>135823</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4646372871113297</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4020549675190082</v>
+        <v>0.4045944172981124</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5231376705623032</v>
+        <v>0.5268435313351572</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>153</v>
@@ -6387,19 +6387,19 @@
         <v>159714</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>138041</v>
+        <v>135739</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>185459</v>
+        <v>183675</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1451633851995781</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1254653461680335</v>
+        <v>0.1233728529418379</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1685631825141115</v>
+        <v>0.166941330898501</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>274</v>
@@ -6408,19 +6408,19 @@
         <v>279500</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>249844</v>
+        <v>252311</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>307634</v>
+        <v>311179</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2058112178860118</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1839736078958592</v>
+        <v>0.1857908592700323</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.226527781154166</v>
+        <v>0.2291386348951418</v>
       </c>
     </row>
     <row r="39">
@@ -6512,19 +6512,19 @@
         <v>9389</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4178</v>
+        <v>5029</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>18050</v>
+        <v>18898</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002779698216318907</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.00123701284475616</v>
+        <v>0.001489053135611483</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005344141848186589</v>
+        <v>0.005595160292440815</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>27</v>
@@ -6533,19 +6533,19 @@
         <v>29019</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>18956</v>
+        <v>19583</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>41554</v>
+        <v>41589</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.008227792735676108</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.005374507926520843</v>
+        <v>0.005552436367742532</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01178184682150635</v>
+        <v>0.01179177077893153</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>36</v>
@@ -6554,19 +6554,19 @@
         <v>38408</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>27846</v>
+        <v>27156</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>53086</v>
+        <v>53837</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.005562683208591413</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00403299360815607</v>
+        <v>0.003933089590937941</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.007688656547025783</v>
+        <v>0.007797364456661925</v>
       </c>
     </row>
     <row r="41">
@@ -6583,19 +6583,19 @@
         <v>79055</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>61866</v>
+        <v>60715</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>100417</v>
+        <v>99070</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02340583222015984</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01831677087373825</v>
+        <v>0.01797596863223537</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0297306388133425</v>
+        <v>0.02933196017462154</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>149</v>
@@ -6604,19 +6604,19 @@
         <v>161910</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>136160</v>
+        <v>136455</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>188252</v>
+        <v>188670</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04590662568846905</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03860556677451422</v>
+        <v>0.03868938696737181</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0533753819129025</v>
+        <v>0.0534938091676826</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>219</v>
@@ -6625,19 +6625,19 @@
         <v>240965</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>209721</v>
+        <v>206518</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>274655</v>
+        <v>271155</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03489964355438683</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03037455454897199</v>
+        <v>0.02991065334473283</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03977914582783496</v>
+        <v>0.03927223751548747</v>
       </c>
     </row>
     <row r="42">
@@ -6654,19 +6654,19 @@
         <v>481238</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>440946</v>
+        <v>438351</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>526504</v>
+        <v>521069</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1424810449148739</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1305517575074532</v>
+        <v>0.1297834101099726</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1558830662660413</v>
+        <v>0.1542737916565927</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>702</v>
@@ -6675,19 +6675,19 @@
         <v>757957</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>707190</v>
+        <v>705227</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>807569</v>
+        <v>806042</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2149048754306564</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.200510826209251</v>
+        <v>0.199954166492766</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2289714496892891</v>
+        <v>0.2285383883726693</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1138</v>
@@ -6696,19 +6696,19 @@
         <v>1239195</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1177266</v>
+        <v>1175505</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1307425</v>
+        <v>1310152</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1794764444425772</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1705071176710942</v>
+        <v>0.1702519694034032</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1893583644407858</v>
+        <v>0.189753417437662</v>
       </c>
     </row>
     <row r="43">
@@ -6725,19 +6725,19 @@
         <v>2088183</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2031040</v>
+        <v>2025645</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>2151733</v>
+        <v>2145875</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.6182525673296373</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6013339215178194</v>
+        <v>0.5997366832105473</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.637067963592251</v>
+        <v>0.6353336032514624</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1965</v>
@@ -6746,19 +6746,19 @@
         <v>2122585</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2062686</v>
+        <v>2062446</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>2181264</v>
+        <v>2185905</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.6018201063031019</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.5848367345069375</v>
+        <v>0.5847687259265493</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.6184573082113295</v>
+        <v>0.6197732664659459</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>3924</v>
@@ -6767,19 +6767,19 @@
         <v>4210768</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4123398</v>
+        <v>4120509</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4289557</v>
+        <v>4290846</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.6098585697107511</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.5972043735216797</v>
+        <v>0.5967859776952434</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.6212697801217275</v>
+        <v>0.621456468790518</v>
       </c>
     </row>
     <row r="44">
@@ -6796,19 +6796,19 @@
         <v>719693</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>668551</v>
+        <v>670579</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>769318</v>
+        <v>770303</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2130808573190101</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1979393023670743</v>
+        <v>0.1985397603481212</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2277735638601314</v>
+        <v>0.2280652028843604</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>424</v>
@@ -6817,19 +6817,19 @@
         <v>455472</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>419475</v>
+        <v>412199</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>498417</v>
+        <v>497073</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1291405998420966</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.118934578699793</v>
+        <v>0.1168713405980868</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1413170103045775</v>
+        <v>0.1409358182729543</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1112</v>
@@ -6838,19 +6838,19 @@
         <v>1175164</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1113975</v>
+        <v>1112927</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1242155</v>
+        <v>1243365</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1702026590836934</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1613403639209327</v>
+        <v>0.1611886139400341</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.179905149636792</v>
+        <v>0.180080368502114</v>
       </c>
     </row>
     <row r="45">
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5715</v>
+        <v>5716</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004361600441623303</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0133472521027871</v>
+        <v>0.01335068137550554</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5429</v>
+        <v>7085</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003147160105510418</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01577996649258331</v>
+        <v>0.02059073161201354</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -7226,19 +7226,19 @@
         <v>2950</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7512</v>
+        <v>7942</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003820499087582704</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001184659890968055</v>
+        <v>0.001191175806737434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009728242610197649</v>
+        <v>0.01028476562378504</v>
       </c>
     </row>
     <row r="5">
@@ -7255,19 +7255,19 @@
         <v>7797</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3093</v>
+        <v>3402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16011</v>
+        <v>15936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01820955832159187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007224730592810367</v>
+        <v>0.007946757627964807</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03739510068625504</v>
+        <v>0.03722070623656486</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -7276,19 +7276,19 @@
         <v>3307</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9470</v>
+        <v>8565</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009611653081803636</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002823469872539179</v>
+        <v>0.002817073994355935</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02752385311681106</v>
+        <v>0.0248931339445838</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -7297,19 +7297,19 @@
         <v>11104</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5419</v>
+        <v>5693</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19387</v>
+        <v>19501</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01437870881106497</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007017922282697851</v>
+        <v>0.007372296545889364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02510509528420423</v>
+        <v>0.02525306349132871</v>
       </c>
     </row>
     <row r="6">
@@ -7326,19 +7326,19 @@
         <v>31881</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20962</v>
+        <v>22173</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45079</v>
+        <v>43725</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0744608718905818</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04895933472987876</v>
+        <v>0.05178609461132836</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1052857846834857</v>
+        <v>0.1021235713612875</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -7347,19 +7347,19 @@
         <v>33321</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22822</v>
+        <v>22847</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45313</v>
+        <v>46468</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09684307585137886</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06632862193794563</v>
+        <v>0.06640058746960938</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1316961162086711</v>
+        <v>0.1350546924273943</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -7368,19 +7368,19 @@
         <v>65202</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50630</v>
+        <v>49699</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>82958</v>
+        <v>81781</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08443340039565805</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06556348833481351</v>
+        <v>0.06435809533690236</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1074272844348323</v>
+        <v>0.1059019903668641</v>
       </c>
     </row>
     <row r="7">
@@ -7397,19 +7397,19 @@
         <v>277603</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>256911</v>
+        <v>257823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>297253</v>
+        <v>297421</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6483653468283093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6000389030449529</v>
+        <v>0.6021684822957797</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.694260563230758</v>
+        <v>0.6946529785888966</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>214</v>
@@ -7418,19 +7418,19 @@
         <v>225462</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>207181</v>
+        <v>207403</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242154</v>
+        <v>243923</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.655277931307455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6021456030306325</v>
+        <v>0.6027923931209759</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.703790832442502</v>
+        <v>0.7089314959804573</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>469</v>
@@ -7439,19 +7439,19 @@
         <v>503065</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>476419</v>
+        <v>473105</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>528805</v>
+        <v>529674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6514452913182609</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6169401298453165</v>
+        <v>0.612649023691776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6847770442551487</v>
+        <v>0.6859032741755922</v>
       </c>
     </row>
     <row r="8">
@@ -7468,19 +7468,19 @@
         <v>109010</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>90585</v>
+        <v>92352</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>129198</v>
+        <v>128427</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2546026225178937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2115693004308681</v>
+        <v>0.2156958502735684</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.301752122448201</v>
+        <v>0.2999529989114997</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>81</v>
@@ -7489,19 +7489,19 @@
         <v>80898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66893</v>
+        <v>65135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98393</v>
+        <v>98095</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.235120179653852</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1944151510883404</v>
+        <v>0.1893077769608308</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.285968433420682</v>
+        <v>0.2851008541286333</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>181</v>
@@ -7510,19 +7510,19 @@
         <v>189908</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>167387</v>
+        <v>167034</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>216750</v>
+        <v>216257</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2459221003874334</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2167581395324937</v>
+        <v>0.2163007636015325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2806812855399715</v>
+        <v>0.280042647136109</v>
       </c>
     </row>
     <row r="9">
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4996</v>
+        <v>3967</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002429494610131723</v>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01331111284681282</v>
+        <v>0.01056848064159989</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5544</v>
+        <v>4675</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002518732082007134</v>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01505274408364565</v>
+        <v>0.01269406040224735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6367</v>
+        <v>5558</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002473691865942579</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008562691408261035</v>
+        <v>0.007473642383801125</v>
       </c>
     </row>
     <row r="11">
@@ -7685,19 +7685,19 @@
         <v>5264</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1941</v>
+        <v>2040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11529</v>
+        <v>11214</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01402534269700428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005171937607066186</v>
+        <v>0.005434942798903817</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03071833706489281</v>
+        <v>0.02987802423925906</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -7706,19 +7706,19 @@
         <v>10874</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5100</v>
+        <v>5460</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20505</v>
+        <v>20883</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02952600260631425</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01384784688715065</v>
+        <v>0.01482406436135951</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05567538216606292</v>
+        <v>0.05670276909550079</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -7727,19 +7727,19 @@
         <v>16138</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8545</v>
+        <v>9261</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26074</v>
+        <v>26702</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02170246102914763</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01149153492916928</v>
+        <v>0.01245431784424614</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0350631510981308</v>
+        <v>0.03590849828700845</v>
       </c>
     </row>
     <row r="12">
@@ -7756,19 +7756,19 @@
         <v>35466</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24615</v>
+        <v>24223</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49255</v>
+        <v>48915</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09449402535253233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06558353901969988</v>
+        <v>0.06453889224936339</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1312349199205725</v>
+        <v>0.1303272322506311</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -7777,19 +7777,19 @@
         <v>42963</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31749</v>
+        <v>30504</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>58502</v>
+        <v>58015</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1166530436573066</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08620487787971919</v>
+        <v>0.08282376868337836</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1588438744205936</v>
+        <v>0.1575219076856142</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>70</v>
@@ -7798,19 +7798,19 @@
         <v>78429</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61612</v>
+        <v>62215</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>98152</v>
+        <v>97708</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1054688745941254</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08285442617182152</v>
+        <v>0.08366463410895579</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.131992082413876</v>
+        <v>0.1313948126079509</v>
       </c>
     </row>
     <row r="13">
@@ -7827,19 +7827,19 @@
         <v>246374</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>226841</v>
+        <v>228405</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>266613</v>
+        <v>266641</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6564360623103039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6043912435408622</v>
+        <v>0.6085585746118987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7103595345466648</v>
+        <v>0.7104358170038517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>224</v>
@@ -7848,19 +7848,19 @@
         <v>234623</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>214717</v>
+        <v>214403</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>253430</v>
+        <v>252661</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6370476523141476</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5830008527993925</v>
+        <v>0.5821458230008636</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6881139274666035</v>
+        <v>0.6860248988068413</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>455</v>
@@ -7869,19 +7869,19 @@
         <v>480997</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>452694</v>
+        <v>454225</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>505562</v>
+        <v>506488</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6468334312814661</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6087721367931096</v>
+        <v>0.6108314569945552</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6798684089548686</v>
+        <v>0.6811131556098976</v>
       </c>
     </row>
     <row r="14">
@@ -7898,19 +7898,19 @@
         <v>87305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70522</v>
+        <v>69712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105920</v>
+        <v>102766</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2326150750300277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1878966527693983</v>
+        <v>0.1857404997145865</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.282211036554749</v>
+        <v>0.2738091560055141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -7919,19 +7919,19 @@
         <v>78909</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65504</v>
+        <v>63002</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>96341</v>
+        <v>94740</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2142545693402244</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1778572722664983</v>
+        <v>0.1710634264270338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2615846753465332</v>
+        <v>0.2572382098957126</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>159</v>
@@ -7940,19 +7940,19 @@
         <v>166215</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>144440</v>
+        <v>145010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>190082</v>
+        <v>189085</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2235215412293183</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.194239639955487</v>
+        <v>0.1950057170040694</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2556180908955101</v>
+        <v>0.2542771471966009</v>
       </c>
     </row>
     <row r="15">
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5609</v>
+        <v>6355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003503130597929895</v>
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01076563864331135</v>
+        <v>0.01219686445308661</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -8065,19 +8065,19 @@
         <v>3410</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8563</v>
+        <v>9693</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02066486595169127</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006199602324538079</v>
+        <v>0.006228651263813213</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0518862064221534</v>
+        <v>0.05873509574815864</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -8086,19 +8086,19 @@
         <v>5236</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1846</v>
+        <v>1920</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11538</v>
+        <v>11363</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007631524334397971</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002690351226637728</v>
+        <v>0.002798941960484377</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01681775843200994</v>
+        <v>0.01656314856815365</v>
       </c>
     </row>
     <row r="17">
@@ -8115,19 +8115,19 @@
         <v>15745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9228</v>
+        <v>9524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25317</v>
+        <v>26213</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03022026498075036</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01771074117379149</v>
+        <v>0.01828072778492976</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04859110224202041</v>
+        <v>0.05031256045333068</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -8136,19 +8136,19 @@
         <v>8912</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4208</v>
+        <v>3858</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17032</v>
+        <v>15864</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0540002133890853</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02549581289183536</v>
+        <v>0.02337645611415183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1032056312784778</v>
+        <v>0.09612720384780145</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -8157,19 +8157,19 @@
         <v>24657</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16216</v>
+        <v>15902</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36741</v>
+        <v>35695</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03594072320008698</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02363723549583678</v>
+        <v>0.02317851074828833</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05355412359278661</v>
+        <v>0.0520296125502883</v>
       </c>
     </row>
     <row r="18">
@@ -8186,19 +8186,19 @@
         <v>76798</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60142</v>
+        <v>62476</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>92833</v>
+        <v>95063</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1474024938952809</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1154325898548185</v>
+        <v>0.1199124584982861</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1781786239116415</v>
+        <v>0.1824584153128979</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -8207,19 +8207,19 @@
         <v>37275</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26167</v>
+        <v>25446</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50265</v>
+        <v>49195</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.225861105681012</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1585531838170096</v>
+        <v>0.1541847064303371</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3045765823995029</v>
+        <v>0.2980924717524187</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>104</v>
@@ -8228,19 +8228,19 @@
         <v>114073</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>95019</v>
+        <v>95785</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>135592</v>
+        <v>135683</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1662763452157536</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.13850247717333</v>
+        <v>0.1396187007922454</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1976420843178465</v>
+        <v>0.1977755144675844</v>
       </c>
     </row>
     <row r="19">
@@ -8257,19 +8257,19 @@
         <v>304810</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>282148</v>
+        <v>280566</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>326684</v>
+        <v>326710</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5850354420812055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5415378845160685</v>
+        <v>0.5385017433374639</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6270181500514335</v>
+        <v>0.6270688176548133</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -8278,19 +8278,19 @@
         <v>91548</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78448</v>
+        <v>78545</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>105528</v>
+        <v>105027</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5547234769996994</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4753430512007856</v>
+        <v>0.4759335701553695</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6394333279744454</v>
+        <v>0.6363954874152387</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>379</v>
@@ -8299,19 +8299,19 @@
         <v>396359</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>369951</v>
+        <v>366822</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>422715</v>
+        <v>419887</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5777436546131566</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.539251126470071</v>
+        <v>0.5346896616473619</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6161617589690603</v>
+        <v>0.61203953483375</v>
       </c>
     </row>
     <row r="20">
@@ -8328,19 +8328,19 @@
         <v>121833</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>102869</v>
+        <v>103138</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141347</v>
+        <v>143285</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2338386684448334</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1974410652987564</v>
+        <v>0.1979575500041805</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2712937004792464</v>
+        <v>0.2750130257324735</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -8349,19 +8349,19 @@
         <v>23889</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16180</v>
+        <v>15785</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35218</v>
+        <v>33171</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1447503379785121</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09803999516006293</v>
+        <v>0.09564791609346912</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2133967561376917</v>
+        <v>0.20099546929648</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>142</v>
@@ -8370,19 +8370,19 @@
         <v>145721</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>126535</v>
+        <v>123296</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>170364</v>
+        <v>167118</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2124077526366049</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1844413261179322</v>
+        <v>0.1797196229205202</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.248327734909541</v>
+        <v>0.2435966138662042</v>
       </c>
     </row>
     <row r="21">
@@ -8474,19 +8474,19 @@
         <v>3692</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13841</v>
+        <v>12027</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00324303237621876</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0007471470740142441</v>
+        <v>0.0007414212193745542</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01215779521525912</v>
+        <v>0.01056446848860182</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9569</v>
+        <v>9455</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00331806400508791</v>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01168081388925263</v>
+        <v>0.01154259842314739</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -8516,19 +8516,19 @@
         <v>6410</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2535</v>
+        <v>1841</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15932</v>
+        <v>15071</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003274428923402819</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00129467795200416</v>
+        <v>0.0009402857310425658</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008138350836116547</v>
+        <v>0.007698514684483556</v>
       </c>
     </row>
     <row r="23">
@@ -8545,19 +8545,19 @@
         <v>26720</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17570</v>
+        <v>18115</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>38054</v>
+        <v>39096</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02346970522248511</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01543316625608125</v>
+        <v>0.01591146721930842</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03342501206053636</v>
+        <v>0.03434074579941332</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -8566,19 +8566,19 @@
         <v>28271</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17592</v>
+        <v>18368</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41543</v>
+        <v>41776</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03451200693877114</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02147539069305539</v>
+        <v>0.02242308355893485</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05071347165605055</v>
+        <v>0.05099816358621835</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>51</v>
@@ -8587,19 +8587,19 @@
         <v>54991</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>42340</v>
+        <v>41459</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>74163</v>
+        <v>74562</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02809029192813425</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02162781936467557</v>
+        <v>0.02117799388929992</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03788389010298477</v>
+        <v>0.03808749642197376</v>
       </c>
     </row>
     <row r="24">
@@ -8616,19 +8616,19 @@
         <v>173408</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>149615</v>
+        <v>150479</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>197867</v>
+        <v>199121</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1523154273950491</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1314165685840344</v>
+        <v>0.1321755544690705</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1737994047303133</v>
+        <v>0.1749004631123057</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>124</v>
@@ -8637,19 +8637,19 @@
         <v>134356</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>113047</v>
+        <v>113099</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>157620</v>
+        <v>157090</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1640155458171127</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1380029105609507</v>
+        <v>0.1380665224151327</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1924156287595848</v>
+        <v>0.1917685829343263</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>294</v>
@@ -8658,19 +8658,19 @@
         <v>307764</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>277213</v>
+        <v>278529</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>345724</v>
+        <v>340235</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1572112736619351</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1416056675746695</v>
+        <v>0.1422776007130349</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1766022297028548</v>
+        <v>0.173798190464608</v>
       </c>
     </row>
     <row r="25">
@@ -8687,19 +8687,19 @@
         <v>681238</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>649233</v>
+        <v>650018</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>714227</v>
+        <v>713388</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5983751587741011</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5702634578854749</v>
+        <v>0.5709533528943364</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6273519566535362</v>
+        <v>0.6266153294230054</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>486</v>
@@ -8708,19 +8708,19 @@
         <v>498149</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>471892</v>
+        <v>470280</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>530913</v>
+        <v>526790</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6081176697358981</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5760650005691391</v>
+        <v>0.5740966198303871</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6481149298151077</v>
+        <v>0.6430811384535395</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1136</v>
@@ -8729,19 +8729,19 @@
         <v>1179386</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1133920</v>
+        <v>1133976</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1222748</v>
+        <v>1222617</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6024518556246614</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5792270996711925</v>
+        <v>0.5792556423365995</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6246017355341199</v>
+        <v>0.6245347341086942</v>
       </c>
     </row>
     <row r="26">
@@ -8758,19 +8758,19 @@
         <v>253422</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>225626</v>
+        <v>227779</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>279778</v>
+        <v>281692</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.222596676232146</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1981818091415037</v>
+        <v>0.2000729806298261</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2457475401451247</v>
+        <v>0.2474283483387547</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>155</v>
@@ -8779,19 +8779,19 @@
         <v>155671</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>134667</v>
+        <v>134660</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>178619</v>
+        <v>179177</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1900367135031302</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1643957887669917</v>
+        <v>0.1643870884832129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2180499573191803</v>
+        <v>0.2187315646704694</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>397</v>
@@ -8800,19 +8800,19 @@
         <v>409093</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>372620</v>
+        <v>375726</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>444315</v>
+        <v>446865</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2089721498618664</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1903412522416262</v>
+        <v>0.1919274310472653</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2269643429393613</v>
+        <v>0.2282669695915847</v>
       </c>
     </row>
     <row r="27">
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5991</v>
+        <v>6172</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00275239314159189</v>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009735282767972147</v>
+        <v>0.01002937579152054</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7251</v>
+        <v>7878</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003045429559640914</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009880480032799807</v>
+        <v>0.01073469809850132</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -8946,19 +8946,19 @@
         <v>3929</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8828</v>
+        <v>10206</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002911781121473444</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0007550609430889878</v>
+        <v>0.0007603130162940708</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006542352510422789</v>
+        <v>0.007563856526656703</v>
       </c>
     </row>
     <row r="29">
@@ -8975,19 +8975,19 @@
         <v>17469</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10495</v>
+        <v>10791</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27224</v>
+        <v>26871</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02838633637122468</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01705373256734245</v>
+        <v>0.01753531883405953</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04423845454202048</v>
+        <v>0.0436650991116675</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -8996,19 +8996,19 @@
         <v>40099</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28191</v>
+        <v>29060</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>54136</v>
+        <v>54128</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0546372119584405</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03841209395664489</v>
+        <v>0.03959547311785916</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07376327124539174</v>
+        <v>0.07375133001270888</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>54</v>
@@ -9017,19 +9017,19 @@
         <v>57568</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>44589</v>
+        <v>44577</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>74352</v>
+        <v>75468</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04266467780682182</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03304525362185044</v>
+        <v>0.03303687676368316</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05510311379353089</v>
+        <v>0.05593061376083099</v>
       </c>
     </row>
     <row r="30">
@@ -9046,19 +9046,19 @@
         <v>120028</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>101368</v>
+        <v>100968</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>139534</v>
+        <v>140070</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1950408173157246</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1647190924142528</v>
+        <v>0.1640690397859302</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2267370378876435</v>
+        <v>0.2276081942530306</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>173</v>
@@ -9067,19 +9067,19 @@
         <v>192745</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>167667</v>
+        <v>166977</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>216395</v>
+        <v>218680</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2626245390035825</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.228453702146755</v>
+        <v>0.2275142727818152</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2948479718619245</v>
+        <v>0.2979619605302014</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>293</v>
@@ -9088,19 +9088,19 @@
         <v>312773</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>283104</v>
+        <v>282868</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>345437</v>
+        <v>344331</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2318008655869355</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2098131838144057</v>
+        <v>0.2096382479566075</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2560085493597077</v>
+        <v>0.2551893373466904</v>
       </c>
     </row>
     <row r="31">
@@ -9117,19 +9117,19 @@
         <v>341470</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>318193</v>
+        <v>316632</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>365318</v>
+        <v>366371</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5548762214482396</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.517052006902613</v>
+        <v>0.5145161394954587</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5936295609614898</v>
+        <v>0.5953397879070382</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>381</v>
@@ -9138,19 +9138,19 @@
         <v>395136</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>366344</v>
+        <v>367319</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>425077</v>
+        <v>422532</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5383925051752707</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4991609138410281</v>
+        <v>0.5004899834261416</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.579188384129498</v>
+        <v>0.5757197011682008</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>706</v>
@@ -9159,19 +9159,19 @@
         <v>736606</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>704454</v>
+        <v>698998</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>773746</v>
+        <v>777485</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5459104203536819</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.522082114530489</v>
+        <v>0.5180385331351089</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5734351330558428</v>
+        <v>0.5762061901475014</v>
       </c>
     </row>
     <row r="32">
@@ -9188,19 +9188,19 @@
         <v>134738</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>114522</v>
+        <v>114751</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>157165</v>
+        <v>155943</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2189442317232192</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1860945279672259</v>
+        <v>0.186466747500063</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.255388162165672</v>
+        <v>0.2534015893671598</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>103</v>
@@ -9209,19 +9209,19 @@
         <v>103703</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>84873</v>
+        <v>85222</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>122396</v>
+        <v>122770</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1413003143030654</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1156439252367191</v>
+        <v>0.1161197093781495</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1667703639771257</v>
+        <v>0.1672802464366661</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>230</v>
@@ -9230,19 +9230,19 @@
         <v>238441</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>211489</v>
+        <v>210121</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>263546</v>
+        <v>267875</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1767122551310873</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1567375354693928</v>
+        <v>0.1557242802268679</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1953181693369622</v>
+        <v>0.1985264887768525</v>
       </c>
     </row>
     <row r="33">
@@ -9347,19 +9347,19 @@
         <v>11269</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5607</v>
+        <v>5644</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20584</v>
+        <v>19321</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01052306154198629</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005235667928390701</v>
+        <v>0.005270273895713928</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01922185362835736</v>
+        <v>0.01804317606385826</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>10</v>
@@ -9368,19 +9368,19 @@
         <v>11269</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5640</v>
+        <v>5771</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20095</v>
+        <v>21241</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008303676461283667</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00415577383630543</v>
+        <v>0.00425289713084107</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01480801607368649</v>
+        <v>0.01565224597053754</v>
       </c>
     </row>
     <row r="35">
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3871</v>
+        <v>4773</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.003312814890559033</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01352325447874502</v>
+        <v>0.0166748944229024</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>51</v>
@@ -9418,19 +9418,19 @@
         <v>59851</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>44735</v>
+        <v>45621</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>78477</v>
+        <v>77591</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05589088478865685</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04177572056287644</v>
+        <v>0.04260234816781395</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0732851738698905</v>
+        <v>0.07245712564192906</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>52</v>
@@ -9439,19 +9439,19 @@
         <v>60799</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>46343</v>
+        <v>45924</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>78632</v>
+        <v>76645</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04480181309232695</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03414933787820162</v>
+        <v>0.03384083662288084</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05794258379598627</v>
+        <v>0.05647871488100152</v>
       </c>
     </row>
     <row r="36">
@@ -9468,19 +9468,19 @@
         <v>15184</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8936</v>
+        <v>8962</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24640</v>
+        <v>23967</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05305279675142535</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03122079641103951</v>
+        <v>0.03131268010598234</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08608947701407818</v>
+        <v>0.08373973419832652</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>225</v>
@@ -9489,19 +9489,19 @@
         <v>264152</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>234973</v>
+        <v>236285</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>296189</v>
+        <v>296229</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.246675165822364</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2194270132224525</v>
+        <v>0.2206520204483443</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2765932853819425</v>
+        <v>0.2766304786534421</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>240</v>
@@ -9510,19 +9510,19 @@
         <v>279336</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>248282</v>
+        <v>246240</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>309972</v>
+        <v>309375</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2058388944110666</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1829558885031855</v>
+        <v>0.1814505015954101</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2284138530008488</v>
+        <v>0.2279739401644315</v>
       </c>
     </row>
     <row r="37">
@@ -9539,19 +9539,19 @@
         <v>123421</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>107830</v>
+        <v>107011</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>140653</v>
+        <v>141585</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4312181128161861</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3767459081630687</v>
+        <v>0.3738858716192456</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4914248459229831</v>
+        <v>0.4946837159067501</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>483</v>
@@ -9560,19 +9560,19 @@
         <v>523388</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>490501</v>
+        <v>491034</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>557652</v>
+        <v>559523</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4887603514953556</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4580491322203057</v>
+        <v>0.4585471886569931</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5207575948755093</v>
+        <v>0.5225042670083541</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>601</v>
@@ -9581,19 +9581,19 @@
         <v>646809</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>609557</v>
+        <v>610986</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>684911</v>
+        <v>686529</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4766243029200213</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4491740038865037</v>
+        <v>0.4502267991531151</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5047010644265227</v>
+        <v>0.5058934917451861</v>
       </c>
     </row>
     <row r="38">
@@ -9610,19 +9610,19 @@
         <v>146661</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>129217</v>
+        <v>129694</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>163226</v>
+        <v>164254</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5124162755418296</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4514698127877699</v>
+        <v>0.4531358627406721</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5702948856095573</v>
+        <v>0.5738858896094222</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>212</v>
@@ -9631,19 +9631,19 @@
         <v>212189</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>186862</v>
+        <v>187971</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>239857</v>
+        <v>239800</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1981505363516373</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1744994045406331</v>
+        <v>0.1755350595329201</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2239882761149561</v>
+        <v>0.2239345876819213</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>349</v>
@@ -9652,19 +9652,19 @@
         <v>358850</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>323724</v>
+        <v>325406</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>391768</v>
+        <v>390787</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2644313131153014</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2385480276288974</v>
+        <v>0.2397871083983927</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2886886764607796</v>
+        <v>0.2879654512138687</v>
       </c>
     </row>
     <row r="39">
@@ -9756,19 +9756,19 @@
         <v>9990</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4532</v>
+        <v>4534</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>18149</v>
+        <v>18154</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002969287093742522</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001347036169938129</v>
+        <v>0.001347437926954131</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005394266262753141</v>
+        <v>0.005395694519072143</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>19</v>
@@ -9777,19 +9777,19 @@
         <v>21643</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>13786</v>
+        <v>13420</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>33821</v>
+        <v>33249</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.006181253668796187</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00393735664618873</v>
+        <v>0.00383296213625969</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.009659428697520154</v>
+        <v>0.009495969465666259</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>29</v>
@@ -9798,19 +9798,19 @@
         <v>31633</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>20661</v>
+        <v>21407</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>44739</v>
+        <v>45353</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.004607257500860315</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003009163493686938</v>
+        <v>0.003117933766286318</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.006516051177639163</v>
+        <v>0.006605459081171289</v>
       </c>
     </row>
     <row r="41">
@@ -9827,19 +9827,19 @@
         <v>73943</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>57139</v>
+        <v>59390</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>92589</v>
+        <v>93967</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0219767398179676</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01698235203398556</v>
+        <v>0.01765157481687517</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02751865222908838</v>
+        <v>0.02792816200240785</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>131</v>
@@ -9848,19 +9848,19 @@
         <v>151314</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>125751</v>
+        <v>125974</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>178889</v>
+        <v>180028</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04321617208571298</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03591517906929542</v>
+        <v>0.03597873165959792</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05109166348855076</v>
+        <v>0.05141683879909537</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>204</v>
@@ -9869,19 +9869,19 @@
         <v>225257</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>195413</v>
+        <v>196826</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>257122</v>
+        <v>255078</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03280797380052186</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02846126634534162</v>
+        <v>0.02866716703185558</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03744901448508217</v>
+        <v>0.03715136550029544</v>
       </c>
     </row>
     <row r="42">
@@ -9898,19 +9898,19 @@
         <v>452765</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>414154</v>
+        <v>416341</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>492752</v>
+        <v>494977</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1345680581997079</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1230923200434649</v>
+        <v>0.1237423138431258</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1464527709655931</v>
+        <v>0.1471140304143188</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>619</v>
@@ -9919,19 +9919,19 @@
         <v>704811</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>653640</v>
+        <v>655210</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>755623</v>
+        <v>755732</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.201297893470471</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1866830161891319</v>
+        <v>0.1871314561104395</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2158101163206229</v>
+        <v>0.2158411539620411</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1062</v>
@@ -9940,19 +9940,19 @@
         <v>1157576</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1095352</v>
+        <v>1096862</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1224186</v>
+        <v>1230675</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1685975204905877</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1595347778300644</v>
+        <v>0.1597546025286053</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1782990664487585</v>
+        <v>0.1792440955309625</v>
       </c>
     </row>
     <row r="43">
@@ -9969,19 +9969,19 @@
         <v>1974916</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1918472</v>
+        <v>1916268</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>2030091</v>
+        <v>2034520</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.5869720265673206</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5701961576971064</v>
+        <v>0.5695410573590726</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.6033709538709175</v>
+        <v>0.604687265902657</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1875</v>
@@ -9990,19 +9990,19 @@
         <v>1968306</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1905064</v>
+        <v>1904565</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>2026541</v>
+        <v>2028309</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.5621589777662586</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.5440966093642917</v>
+        <v>0.543954059698605</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.5787912437441691</v>
+        <v>0.5792959408115963</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>3746</v>
@@ -10011,19 +10011,19 @@
         <v>3943222</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3865044</v>
+        <v>3859721</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4027497</v>
+        <v>4027148</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.5743183956229108</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.562931964136464</v>
+        <v>0.5621568024525946</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.5865928578887334</v>
+        <v>0.5865420023225274</v>
       </c>
     </row>
     <row r="44">
@@ -10040,19 +10040,19 @@
         <v>852968</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>803350</v>
+        <v>795921</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>906543</v>
+        <v>900381</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2535138883212614</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2387666920483509</v>
+        <v>0.2365585459626444</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2694371688443683</v>
+        <v>0.2676056281623794</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>652</v>
@@ -10061,19 +10061,19 @@
         <v>655260</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>613111</v>
+        <v>612499</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>707907</v>
+        <v>702212</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1871457030087613</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1751078224105702</v>
+        <v>0.174933151453856</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2021820840054418</v>
+        <v>0.2005555959712768</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1458</v>
@@ -10082,19 +10082,19 @@
         <v>1508228</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1442704</v>
+        <v>1437922</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1577127</v>
+        <v>1574743</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2196688525851194</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.210125474830876</v>
+        <v>0.209428976354168</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2297038248320414</v>
+        <v>0.2293565194341759</v>
       </c>
     </row>
     <row r="45">
@@ -10428,19 +10428,19 @@
         <v>4392</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1067</v>
+        <v>1126</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10771</v>
+        <v>11495</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007976275072781929</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001938458801741226</v>
+        <v>0.002045704716258394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0195618746040477</v>
+        <v>0.02087703552528547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -10449,19 +10449,19 @@
         <v>2578</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>774</v>
+        <v>709</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7119</v>
+        <v>6478</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.005279114935812382</v>
+        <v>0.005279114935812381</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001585393407291257</v>
+        <v>0.001451537562304732</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01457675437952818</v>
+        <v>0.01326374191387093</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -10470,19 +10470,19 @@
         <v>6970</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2962</v>
+        <v>3197</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13389</v>
+        <v>14140</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.006708435408098768</v>
+        <v>0.006708435408098767</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002850716993809504</v>
+        <v>0.0030765846857379</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01288610394390562</v>
+        <v>0.01360875376284375</v>
       </c>
     </row>
     <row r="5">
@@ -10499,19 +10499,19 @@
         <v>10943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6376</v>
+        <v>6129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18405</v>
+        <v>18181</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01987403731492574</v>
+        <v>0.01987403731492573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01158019913841494</v>
+        <v>0.01113153899293004</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03342607574184078</v>
+        <v>0.03301943372657601</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -10520,19 +10520,19 @@
         <v>9274</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5352</v>
+        <v>5677</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15061</v>
+        <v>15175</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01898709648878951</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01095793549261029</v>
+        <v>0.01162397644365059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03083662561176593</v>
+        <v>0.03107077817478755</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -10541,19 +10541,19 @@
         <v>20217</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13677</v>
+        <v>13948</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29245</v>
+        <v>28943</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01945711777641224</v>
+        <v>0.01945711777641223</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01316371599486574</v>
+        <v>0.01342415524310138</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02814673087448891</v>
+        <v>0.02785609770447921</v>
       </c>
     </row>
     <row r="6">
@@ -10570,19 +10570,19 @@
         <v>62701</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49436</v>
+        <v>48702</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>78672</v>
+        <v>76803</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1138734697514379</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08978207944748749</v>
+        <v>0.08844961513469239</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1428790023783874</v>
+        <v>0.139485467109167</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>98</v>
@@ -10591,19 +10591,19 @@
         <v>67714</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55074</v>
+        <v>55957</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82603</v>
+        <v>83769</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1386422219172913</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.112762018369857</v>
+        <v>0.1145685930326416</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.16912604942336</v>
+        <v>0.1715139517539786</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>168</v>
@@ -10612,19 +10612,19 @@
         <v>130415</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>110510</v>
+        <v>111106</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>150955</v>
+        <v>151000</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1255163848346555</v>
+        <v>0.1255163848346554</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1063589651376194</v>
+        <v>0.1069326331070836</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.145284692435694</v>
+        <v>0.1453275854588057</v>
       </c>
     </row>
     <row r="7">
@@ -10641,19 +10641,19 @@
         <v>369133</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>346468</v>
+        <v>344352</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>392578</v>
+        <v>393833</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6703972448198129</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6292354125562429</v>
+        <v>0.6253920762207364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7129777033322285</v>
+        <v>0.7152561001933987</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>468</v>
@@ -10662,19 +10662,19 @@
         <v>331687</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>312841</v>
+        <v>313094</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>348728</v>
+        <v>350760</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6791139951841317</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6405274276848641</v>
+        <v>0.6410465561519048</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7140044884554787</v>
+        <v>0.718166075824262</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>852</v>
@@ -10683,19 +10683,19 @@
         <v>700820</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>672680</v>
+        <v>669784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>734222</v>
+        <v>730654</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6744946811223685</v>
+        <v>0.6744946811223684</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6474123671886017</v>
+        <v>0.6446249882070334</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7066422401375508</v>
+        <v>0.7032081314263721</v>
       </c>
     </row>
     <row r="8">
@@ -10712,19 +10712,19 @@
         <v>103450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>83327</v>
+        <v>82619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>125456</v>
+        <v>125491</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1878789730410416</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1513329479776606</v>
+        <v>0.1500477741171201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.227844944655268</v>
+        <v>0.2279099648810702</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>100</v>
@@ -10733,19 +10733,19 @@
         <v>77158</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>63781</v>
+        <v>62718</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92507</v>
+        <v>91343</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1579775714739751</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1305892115750172</v>
+        <v>0.1284123205360412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1894044421332633</v>
+        <v>0.1870212264733189</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>181</v>
@@ -10754,19 +10754,19 @@
         <v>180608</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>156695</v>
+        <v>156247</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>206174</v>
+        <v>208272</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1738233808584651</v>
+        <v>0.173823380858465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1508089625026348</v>
+        <v>0.1503782659604126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1984294627056872</v>
+        <v>0.2004491602565926</v>
       </c>
     </row>
     <row r="9">
@@ -10861,16 +10861,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6191</v>
+        <v>5400</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.002224182428026258</v>
+        <v>0.002224182428026257</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01281223533218784</v>
+        <v>0.01117542672997409</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -10879,19 +10879,19 @@
         <v>1988</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5281</v>
+        <v>5276</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004697592197142724</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001511601099656473</v>
+        <v>0.001523775350470142</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01247950670440631</v>
+        <v>0.01246946050491267</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -10900,19 +10900,19 @@
         <v>3063</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8525</v>
+        <v>7875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003378923857061768</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007495800379523717</v>
+        <v>0.000752279776175678</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009406318471581633</v>
+        <v>0.00868826078009999</v>
       </c>
     </row>
     <row r="11">
@@ -10929,19 +10929,19 @@
         <v>7119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3362</v>
+        <v>3478</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13260</v>
+        <v>12666</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01473200678626446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006956694154662983</v>
+        <v>0.007198216158645744</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02744092510537291</v>
+        <v>0.0262111549259303</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -10950,19 +10950,19 @@
         <v>9391</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5469</v>
+        <v>5731</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14875</v>
+        <v>15459</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02219420554344986</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01292506553855451</v>
+        <v>0.01354435335660421</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03515460634658923</v>
+        <v>0.03653460879281645</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -10971,19 +10971,19 @@
         <v>16510</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11112</v>
+        <v>10634</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24941</v>
+        <v>23921</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01821582502140362</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01226027888999639</v>
+        <v>0.01173238590079424</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02751773600596352</v>
+        <v>0.02639294923810078</v>
       </c>
     </row>
     <row r="12">
@@ -11000,19 +11000,19 @@
         <v>60281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46538</v>
+        <v>47652</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74741</v>
+        <v>75653</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1247498872952878</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09631021081780501</v>
+        <v>0.09861456543398148</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.154675157659428</v>
+        <v>0.1565629646473664</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>98</v>
@@ -11021,19 +11021,19 @@
         <v>65832</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53490</v>
+        <v>54022</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79392</v>
+        <v>79086</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1555789572346538</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.126410713228417</v>
+        <v>0.1276682409652668</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1876241320559428</v>
+        <v>0.1869011085931729</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>168</v>
@@ -11042,19 +11042,19 @@
         <v>126113</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>109530</v>
+        <v>108646</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>145704</v>
+        <v>146068</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1391428134986705</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1208466723658295</v>
+        <v>0.1198717355043073</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1607585400758073</v>
+        <v>0.1611599625980806</v>
       </c>
     </row>
     <row r="13">
@@ -11071,19 +11071,19 @@
         <v>312649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>288973</v>
+        <v>287550</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>334529</v>
+        <v>334190</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6470216461186591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5980254016173058</v>
+        <v>0.5950810797081874</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6923022430309693</v>
+        <v>0.6916015715361477</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>410</v>
@@ -11092,19 +11092,19 @@
         <v>296049</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>280271</v>
+        <v>277721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>311840</v>
+        <v>310004</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6996439907816367</v>
+        <v>0.6996439907816366</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6623547644274902</v>
+        <v>0.6563279625909558</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7369601301558617</v>
+        <v>0.7326233538805216</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>730</v>
@@ -11113,19 +11113,19 @@
         <v>608698</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>578419</v>
+        <v>580706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>635297</v>
+        <v>636508</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6715890276476131</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6381818943153417</v>
+        <v>0.6407048117398833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7009365620278079</v>
+        <v>0.7022726297091811</v>
       </c>
     </row>
     <row r="14">
@@ -11142,19 +11142,19 @@
         <v>102089</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82297</v>
+        <v>84058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123929</v>
+        <v>126347</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2112722773717624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1703133239328655</v>
+        <v>0.173955742731504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2564701298546943</v>
+        <v>0.2614727197918406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -11163,19 +11163,19 @@
         <v>49882</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39330</v>
+        <v>38409</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63373</v>
+        <v>62664</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1178852542431167</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09294750301282306</v>
+        <v>0.09077038168697128</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1497682363897277</v>
+        <v>0.1480926084552801</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>144</v>
@@ -11184,19 +11184,19 @@
         <v>151972</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>129113</v>
+        <v>130246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>180042</v>
+        <v>177474</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1676734099752511</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.142453482993173</v>
+        <v>0.1437025281002274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1986436625557041</v>
+        <v>0.195810540631345</v>
       </c>
     </row>
     <row r="15">
@@ -11288,19 +11288,19 @@
         <v>6020</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2598</v>
+        <v>2724</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12616</v>
+        <v>12694</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01276516640132351</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005508630426917302</v>
+        <v>0.005775790143925715</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02675040284625461</v>
+        <v>0.02691515919051448</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -11309,19 +11309,19 @@
         <v>4053</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1784</v>
+        <v>1937</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8018</v>
+        <v>8202</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02161491642751986</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009514395995639836</v>
+        <v>0.01033121550682318</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04276385283779965</v>
+        <v>0.04374682343869937</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -11330,19 +11330,19 @@
         <v>10073</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5658</v>
+        <v>5404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17113</v>
+        <v>17018</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01528266214547363</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008583573539290713</v>
+        <v>0.008198553903968071</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02596423619448723</v>
+        <v>0.02581922061516895</v>
       </c>
     </row>
     <row r="17">
@@ -11359,19 +11359,19 @@
         <v>21356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13760</v>
+        <v>14284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30268</v>
+        <v>31360</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0452825944806682</v>
+        <v>0.04528259448066819</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02917590262030633</v>
+        <v>0.03028757259206505</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06418003691554466</v>
+        <v>0.06649447833628551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -11380,19 +11380,19 @@
         <v>7569</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3980</v>
+        <v>4308</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13490</v>
+        <v>13432</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04037028483420409</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02122873634500016</v>
+        <v>0.02297609623632565</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07194712590350587</v>
+        <v>0.07163855714215721</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -11401,19 +11401,19 @@
         <v>28925</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20650</v>
+        <v>20473</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39701</v>
+        <v>39087</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04388518567337828</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03133090913187943</v>
+        <v>0.03106196425012216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06023403938770576</v>
+        <v>0.0593027243670174</v>
       </c>
     </row>
     <row r="18">
@@ -11430,19 +11430,19 @@
         <v>72698</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58010</v>
+        <v>58304</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>88715</v>
+        <v>89183</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1541473422105141</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1230034438895413</v>
+        <v>0.1236279146762529</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1881101575718095</v>
+        <v>0.189102834463732</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -11451,19 +11451,19 @@
         <v>45208</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36025</v>
+        <v>36272</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56125</v>
+        <v>56722</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2411130401083029</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1921351792559327</v>
+        <v>0.193451976912723</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2993384502641455</v>
+        <v>0.3025209367709166</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>157</v>
@@ -11472,19 +11472,19 @@
         <v>117906</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>101665</v>
+        <v>100882</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>137215</v>
+        <v>137834</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1788865465605411</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1542457048356576</v>
+        <v>0.1530583833142035</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2081827878784829</v>
+        <v>0.2091216604377011</v>
       </c>
     </row>
     <row r="19">
@@ -11501,19 +11501,19 @@
         <v>310065</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>286348</v>
+        <v>286655</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>330515</v>
+        <v>330379</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6574582086363414</v>
+        <v>0.6574582086363413</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6071693301331885</v>
+        <v>0.6078185300212342</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7008205938310803</v>
+        <v>0.7005311705567541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>174</v>
@@ -11522,19 +11522,19 @@
         <v>111945</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100001</v>
+        <v>100296</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>123021</v>
+        <v>122494</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5970522035540723</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5333446812625018</v>
+        <v>0.5349205076808845</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6561242127321522</v>
+        <v>0.6533137990224794</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>492</v>
@@ -11543,19 +11543,19 @@
         <v>422011</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>398738</v>
+        <v>398688</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>445862</v>
+        <v>447041</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6402744621728174</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6049659384505831</v>
+        <v>0.6048899183926035</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6764611600281143</v>
+        <v>0.6782507107956331</v>
       </c>
     </row>
     <row r="20">
@@ -11572,19 +11572,19 @@
         <v>61473</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46388</v>
+        <v>45637</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79761</v>
+        <v>79077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1303466882711529</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09836092566945132</v>
+        <v>0.09676826919998968</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1691250858556044</v>
+        <v>0.1676735589691922</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -11593,19 +11593,19 @@
         <v>18721</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12402</v>
+        <v>12784</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26608</v>
+        <v>28327</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09984955507590093</v>
+        <v>0.09984955507590092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06614394696830649</v>
+        <v>0.06818221112134168</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1419098684986633</v>
+        <v>0.1510812532085626</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>73</v>
@@ -11614,19 +11614,19 @@
         <v>80195</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63688</v>
+        <v>61995</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>101647</v>
+        <v>99867</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1216711434477897</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09662784533441415</v>
+        <v>0.09405938709203622</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1542193568492039</v>
+        <v>0.1515177748694101</v>
       </c>
     </row>
     <row r="21">
@@ -11718,19 +11718,19 @@
         <v>13498</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7539</v>
+        <v>6930</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24630</v>
+        <v>22554</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01192526537395649</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006660917159065325</v>
+        <v>0.006122343026815697</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02176137369336132</v>
+        <v>0.01992719855371786</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -11739,19 +11739,19 @@
         <v>9033</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4968</v>
+        <v>5220</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15451</v>
+        <v>15165</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01048849954415947</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005768241025632582</v>
+        <v>0.006060839543892854</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01794107089205886</v>
+        <v>0.01760902442441182</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -11760,19 +11760,19 @@
         <v>22530</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14658</v>
+        <v>14833</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33979</v>
+        <v>33487</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01130442970506247</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007354634131075669</v>
+        <v>0.007442386697228008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01704872097168921</v>
+        <v>0.01680205304501119</v>
       </c>
     </row>
     <row r="23">
@@ -11789,19 +11789,19 @@
         <v>46670</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35540</v>
+        <v>35473</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>60879</v>
+        <v>60677</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04123341500881924</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03140028440754245</v>
+        <v>0.03134100841480456</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05378768867544887</v>
+        <v>0.05360928240536793</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>54</v>
@@ -11810,19 +11810,19 @@
         <v>30277</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22093</v>
+        <v>22804</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>38883</v>
+        <v>39938</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.03515672027529846</v>
+        <v>0.03515672027529847</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02565348871973767</v>
+        <v>0.02647853923103865</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04514973038791282</v>
+        <v>0.04637456069052449</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>118</v>
@@ -11831,19 +11831,19 @@
         <v>76947</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>62390</v>
+        <v>63449</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>92850</v>
+        <v>93346</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03860763649898153</v>
+        <v>0.03860763649898154</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03130361773597779</v>
+        <v>0.03183505448074146</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04658695222590412</v>
+        <v>0.04683544713616947</v>
       </c>
     </row>
     <row r="24">
@@ -11860,19 +11860,19 @@
         <v>185434</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>163143</v>
+        <v>161854</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>211951</v>
+        <v>208432</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1638337068705439</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1441391453559489</v>
+        <v>0.1430005131278881</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1872622102132469</v>
+        <v>0.1841526341028162</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>267</v>
@@ -11881,19 +11881,19 @@
         <v>164724</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>145634</v>
+        <v>146692</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>183447</v>
+        <v>183129</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1912700581835675</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1691033011148289</v>
+        <v>0.1703320009856936</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2130107889848733</v>
+        <v>0.212641306491064</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>488</v>
@@ -11902,19 +11902,19 @@
         <v>350158</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>319958</v>
+        <v>322260</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>380526</v>
+        <v>383342</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.175689129073784</v>
+        <v>0.1756891290737841</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1605365244617669</v>
+        <v>0.1616917635420285</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1909258842565142</v>
+        <v>0.1923388158700761</v>
       </c>
     </row>
     <row r="25">
@@ -11931,19 +11931,19 @@
         <v>695874</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>659380</v>
+        <v>656422</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>733373</v>
+        <v>730057</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6148149518712706</v>
+        <v>0.6148149518712704</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5825720601591781</v>
+        <v>0.5799585605402872</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6479459052033416</v>
+        <v>0.6450162217722301</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>764</v>
@@ -11952,19 +11952,19 @@
         <v>543614</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>520553</v>
+        <v>520606</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>567586</v>
+        <v>569843</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6312203952564145</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6044425789690692</v>
+        <v>0.6045044796126507</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.659056033825188</v>
+        <v>0.6616768536497183</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1447</v>
@@ -11973,19 +11973,19 @@
         <v>1239488</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1198332</v>
+        <v>1195548</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1281428</v>
+        <v>1278559</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6219038484793961</v>
+        <v>0.6219038484793962</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6012542904067353</v>
+        <v>0.5998571174955295</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6429471958553646</v>
+        <v>0.6415073980765945</v>
       </c>
     </row>
     <row r="26">
@@ -12002,19 +12002,19 @@
         <v>190368</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>162242</v>
+        <v>157831</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>225856</v>
+        <v>222569</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1681926608754098</v>
+        <v>0.1681926608754099</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1433433227544912</v>
+        <v>0.1394462505691683</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1995467039649601</v>
+        <v>0.1966427378144271</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>129</v>
@@ -12023,19 +12023,19 @@
         <v>113563</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>95674</v>
+        <v>95558</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>134800</v>
+        <v>133314</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1318643267405601</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1110923358037194</v>
+        <v>0.1109574596418265</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1565240114723357</v>
+        <v>0.1547988255062147</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>265</v>
@@ -12044,19 +12044,19 @@
         <v>303931</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>267291</v>
+        <v>268127</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>342437</v>
+        <v>342020</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1524949562427758</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1341112082537286</v>
+        <v>0.1345309375368461</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1718154474479175</v>
+        <v>0.1716058354253031</v>
       </c>
     </row>
     <row r="27">
@@ -12148,19 +12148,19 @@
         <v>10615</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5765</v>
+        <v>5810</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18148</v>
+        <v>17941</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01868897915069878</v>
+        <v>0.01868897915069877</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01015092370245537</v>
+        <v>0.0102297930378073</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03195229225970484</v>
+        <v>0.0315883643348706</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -12169,19 +12169,19 @@
         <v>16727</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11554</v>
+        <v>11272</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23484</v>
+        <v>23474</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02013228285935447</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01390572575890867</v>
+        <v>0.0135668782701148</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02826454543670037</v>
+        <v>0.02825289874647318</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>45</v>
@@ -12190,19 +12190,19 @@
         <v>27342</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>19758</v>
+        <v>19007</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>37544</v>
+        <v>37138</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01954625484753066</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01412497152971667</v>
+        <v>0.01358778188227973</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02683997255635308</v>
+        <v>0.02654934165893333</v>
       </c>
     </row>
     <row r="29">
@@ -12219,19 +12219,19 @@
         <v>25179</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16956</v>
+        <v>17672</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>35322</v>
+        <v>34385</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04433187641539792</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02985359062867835</v>
+        <v>0.03111466792524632</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06218977567782181</v>
+        <v>0.0605410514309609</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>132</v>
@@ -12240,19 +12240,19 @@
         <v>69865</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>58471</v>
+        <v>58881</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>82279</v>
+        <v>81986</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08408893149391428</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07037454285329534</v>
+        <v>0.07086837897030655</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09902931387778301</v>
+        <v>0.09867728929877262</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>167</v>
@@ -12261,19 +12261,19 @@
         <v>95044</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>79914</v>
+        <v>81160</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>110251</v>
+        <v>108856</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06794628057165403</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05712991124709008</v>
+        <v>0.05802063406948747</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07881772685014514</v>
+        <v>0.07782024575106818</v>
       </c>
     </row>
     <row r="30">
@@ -12290,19 +12290,19 @@
         <v>90781</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>75299</v>
+        <v>73479</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110751</v>
+        <v>108015</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.159836192179489</v>
+        <v>0.1598361921794889</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.13257626037406</v>
+        <v>0.1293730443258852</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1949965379463414</v>
+        <v>0.1901789811308742</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>387</v>
@@ -12311,19 +12311,19 @@
         <v>225127</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>206355</v>
+        <v>204628</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>247214</v>
+        <v>243434</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.270960221609671</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2483665470096132</v>
+        <v>0.2462881161511674</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2975432813981101</v>
+        <v>0.292994368231068</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>488</v>
@@ -12332,19 +12332,19 @@
         <v>315909</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>290089</v>
+        <v>289620</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>344542</v>
+        <v>342490</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2258402696257087</v>
+        <v>0.2258402696257086</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.207382230358058</v>
+        <v>0.2070466201171272</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2463101820627622</v>
+        <v>0.2448431126365251</v>
       </c>
     </row>
     <row r="31">
@@ -12361,19 +12361,19 @@
         <v>359392</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>334947</v>
+        <v>333285</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>384538</v>
+        <v>384643</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6327732962585769</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5897321970055253</v>
+        <v>0.5868060466470575</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6770462780977861</v>
+        <v>0.6772305445747725</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>661</v>
@@ -12382,19 +12382,19 @@
         <v>450647</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>425215</v>
+        <v>426823</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>472842</v>
+        <v>473472</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5423927710426969</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5117827465537116</v>
+        <v>0.5137186641723286</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.569106223217184</v>
+        <v>0.5698646171693236</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1006</v>
@@ -12403,19 +12403,19 @@
         <v>810039</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>775187</v>
+        <v>775593</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>844986</v>
+        <v>844800</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.5790901890443357</v>
+        <v>0.5790901890443356</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5541744486046092</v>
+        <v>0.5544650499447668</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6040731601546041</v>
+        <v>0.6039403382737422</v>
       </c>
     </row>
     <row r="32">
@@ -12432,19 +12432,19 @@
         <v>81997</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>61104</v>
+        <v>61951</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>106539</v>
+        <v>105337</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1443696559958374</v>
+        <v>0.1443696559958373</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1075843711854835</v>
+        <v>0.1090763267245888</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1875801830215244</v>
+        <v>0.1854644511254462</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>79</v>
@@ -12453,19 +12453,19 @@
         <v>68483</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>53268</v>
+        <v>54890</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>88326</v>
+        <v>85381</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08242579299436348</v>
+        <v>0.08242579299436345</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06411301859116977</v>
+        <v>0.06606530831070852</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1063085029551247</v>
+        <v>0.1027639110777524</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>131</v>
@@ -12474,19 +12474,19 @@
         <v>150480</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>126266</v>
+        <v>125931</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>182111</v>
+        <v>178562</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.107577005910771</v>
+        <v>0.1075770059107709</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0902664259836711</v>
+        <v>0.09002703321747926</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1301897523275364</v>
+        <v>0.1276523682367293</v>
       </c>
     </row>
     <row r="33">
@@ -12578,19 +12578,19 @@
         <v>2040</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6089</v>
+        <v>6138</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.008600818113369496</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00220143509481245</v>
+        <v>0.002125242843799686</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02566682923635309</v>
+        <v>0.02587198428082771</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>23</v>
@@ -12599,19 +12599,19 @@
         <v>14353</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9342</v>
+        <v>9046</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>21893</v>
+        <v>21545</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.01700037504469007</v>
+        <v>0.01700037504469006</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0110647845570242</v>
+        <v>0.01071418182010565</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02593091195851872</v>
+        <v>0.02551849264943998</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>26</v>
@@ -12620,19 +12620,19 @@
         <v>16393</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11130</v>
+        <v>10529</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>24485</v>
+        <v>23300</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01515794149897589</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01029134441082352</v>
+        <v>0.009735333764495735</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02263995730698587</v>
+        <v>0.02154386022060112</v>
       </c>
     </row>
     <row r="35">
@@ -12652,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6646</v>
+        <v>6172</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.005053330565613627</v>
@@ -12661,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02801661985886955</v>
+        <v>0.02601578833587703</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>119</v>
@@ -12670,19 +12670,19 @@
         <v>67846</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>55544</v>
+        <v>56519</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>80327</v>
+        <v>80490</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08035907293953225</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06578818032374843</v>
+        <v>0.06694364263087818</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09514262586367768</v>
+        <v>0.09533512682904842</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>120</v>
@@ -12691,19 +12691,19 @@
         <v>69044</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>56721</v>
+        <v>57968</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>82504</v>
+        <v>83112</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06384084143409928</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05244615140278459</v>
+        <v>0.05359962199125894</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07628642761533692</v>
+        <v>0.07684853569916003</v>
       </c>
     </row>
     <row r="36">
@@ -12720,19 +12720,19 @@
         <v>16335</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8137</v>
+        <v>8414</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>28934</v>
+        <v>29282</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.06885878320923401</v>
+        <v>0.068858783209234</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03430175809129456</v>
+        <v>0.03546916301766078</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1219666389269153</v>
+        <v>0.123432762106119</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>330</v>
@@ -12741,19 +12741,19 @@
         <v>196291</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>176652</v>
+        <v>175382</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>216816</v>
+        <v>220207</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.232495264800242</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2092334810357995</v>
+        <v>0.2077292614206905</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2568053471199219</v>
+        <v>0.2608214697266132</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>344</v>
@@ -12762,19 +12762,19 @@
         <v>212627</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>187775</v>
+        <v>189194</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>239186</v>
+        <v>236192</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1966017831022123</v>
+        <v>0.1966017831022122</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.173623250026765</v>
+        <v>0.1749349243731213</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2211596206136496</v>
+        <v>0.2183911777751403</v>
       </c>
     </row>
     <row r="37">
@@ -12791,19 +12791,19 @@
         <v>123550</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>99810</v>
+        <v>99407</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>148090</v>
+        <v>148523</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5208051122040315</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4207325347122661</v>
+        <v>0.4190344474565012</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6242536653594301</v>
+        <v>0.6260773024814229</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>626</v>
@@ -12812,19 +12812,19 @@
         <v>488702</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>461135</v>
+        <v>457013</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>514516</v>
+        <v>514938</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.578838253654321</v>
+        <v>0.5788382536543211</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5461863917283678</v>
+        <v>0.5413045402667365</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6094128440482989</v>
+        <v>0.6099126908164045</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>686</v>
@@ -12833,19 +12833,19 @@
         <v>612252</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>571981</v>
+        <v>577421</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>646203</v>
+        <v>652666</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5661087481047492</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5288726457485471</v>
+        <v>0.5339028661757799</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5975008447934451</v>
+        <v>0.6034774907472906</v>
       </c>
     </row>
     <row r="38">
@@ -12862,19 +12862,19 @@
         <v>94104</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>70240</v>
+        <v>70826</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>119465</v>
+        <v>118562</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3966819559077514</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2960863337418405</v>
+        <v>0.2985574941951144</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5035861102733713</v>
+        <v>0.4997812901205132</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>61</v>
@@ -12883,19 +12883,19 @@
         <v>77089</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>56435</v>
+        <v>56858</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>98630</v>
+        <v>100638</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.09130703356121467</v>
+        <v>0.09130703356121468</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0668434771670955</v>
+        <v>0.0673454281327048</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1168214118745649</v>
+        <v>0.119199472290618</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>95</v>
@@ -12904,19 +12904,19 @@
         <v>171193</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>138332</v>
+        <v>138084</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>211938</v>
+        <v>209919</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1582906858599634</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1279066925975952</v>
+        <v>0.127676909787929</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1959654358862556</v>
+        <v>0.1940979511745584</v>
       </c>
     </row>
     <row r="39">
@@ -13008,19 +13008,19 @@
         <v>37639</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>27061</v>
+        <v>27900</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>51172</v>
+        <v>52190</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01093380860711589</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.007860952330622992</v>
+        <v>0.008104498503512341</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01486490207398099</v>
+        <v>0.01516053433259675</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>85</v>
@@ -13029,19 +13029,19 @@
         <v>48732</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>38242</v>
+        <v>38670</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>60258</v>
+        <v>61083</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01340478987357883</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01051939519991354</v>
+        <v>0.01063716909192844</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01657542267232986</v>
+        <v>0.01680219557712159</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>128</v>
@@ -13050,19 +13050,19 @@
         <v>86371</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>71027</v>
+        <v>70766</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>104099</v>
+        <v>104764</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0122029742586065</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01003509211476859</v>
+        <v>0.009998270391500327</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01470770558564298</v>
+        <v>0.01480166904035146</v>
       </c>
     </row>
     <row r="41">
@@ -13079,19 +13079,19 @@
         <v>112465</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>93063</v>
+        <v>94918</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>130608</v>
+        <v>133119</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03266977490879239</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02703362790282587</v>
+        <v>0.02757269701127797</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03794026564276879</v>
+        <v>0.03866967524079926</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>348</v>
@@ -13100,19 +13100,19 @@
         <v>194222</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>172685</v>
+        <v>175144</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>216455</v>
+        <v>216854</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.05342542568442428</v>
+        <v>0.05342542568442427</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04750106939628568</v>
+        <v>0.04817739064099668</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05954109754789264</v>
+        <v>0.05965086047761581</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>501</v>
@@ -13121,19 +13121,19 @@
         <v>306687</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>281765</v>
+        <v>280467</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>333865</v>
+        <v>337413</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04333046238396458</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03980933371614197</v>
+        <v>0.03962595208554869</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04717032629260707</v>
+        <v>0.04767154273205561</v>
       </c>
     </row>
     <row r="42">
@@ -13150,19 +13150,19 @@
         <v>488229</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>447723</v>
+        <v>448317</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>530240</v>
+        <v>531051</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1418250962176237</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1300584949269444</v>
+        <v>0.1302310169276654</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1540285744337497</v>
+        <v>0.154264365915183</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1251</v>
@@ -13171,19 +13171,19 @@
         <v>764897</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>724561</v>
+        <v>726013</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>809169</v>
+        <v>806351</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.2104028488383847</v>
+        <v>0.2104028488383848</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1993073938749318</v>
+        <v>0.1997067929373309</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2225809632491167</v>
+        <v>0.2218057359723231</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1813</v>
@@ -13192,19 +13192,19 @@
         <v>1253127</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1194851</v>
+        <v>1195679</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1309806</v>
+        <v>1313588</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.1770485636165805</v>
+        <v>0.1770485636165806</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1688151227499802</v>
+        <v>0.1689320589382846</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1850565205147666</v>
+        <v>0.1855908603730665</v>
       </c>
     </row>
     <row r="43">
@@ -13221,19 +13221,19 @@
         <v>2170662</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2106219</v>
+        <v>2109759</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>2238227</v>
+        <v>2235902</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.6305525444905005</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6118326271455325</v>
+        <v>0.6128610004464063</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.6501794922251932</v>
+        <v>0.649503927306891</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3103</v>
@@ -13242,19 +13242,19 @@
         <v>2222645</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2167494</v>
+        <v>2168611</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>2271695</v>
+        <v>2274011</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.6113905131041546</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.5962198611144051</v>
+        <v>0.5965272538420191</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.6248829382576753</v>
+        <v>0.6255201157894221</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>5213</v>
@@ -13263,19 +13263,19 @@
         <v>4393307</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4310204</v>
+        <v>4315982</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4466584</v>
+        <v>4473358</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.6207103848681623</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.6089691983840263</v>
+        <v>0.6097854980187635</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.6310633597423536</v>
+        <v>0.6320204341488742</v>
       </c>
     </row>
     <row r="44">
@@ -13292,19 +13292,19 @@
         <v>633480</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>574863</v>
+        <v>575506</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>690667</v>
+        <v>689312</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1840187757759677</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1669911794586023</v>
+        <v>0.1671778535233219</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.200630762334113</v>
+        <v>0.2002371894781777</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>457</v>
@@ -13313,19 +13313,19 @@
         <v>404897</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>369028</v>
+        <v>364965</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>443891</v>
+        <v>442630</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1113764224994577</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1015097015827386</v>
+        <v>0.1003921103619252</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1221025625561485</v>
+        <v>0.1217558819930755</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>889</v>
@@ -13334,19 +13334,19 @@
         <v>1038377</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>967910</v>
+        <v>972617</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1109286</v>
+        <v>1110491</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.146707614872686</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1367516118005302</v>
+        <v>0.1374166744881635</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1567259953719272</v>
+        <v>0.1568961696161515</v>
       </c>
     </row>
     <row r="45">
